--- a/DrupalGroupContent.xlsx
+++ b/DrupalGroupContent.xlsx
@@ -1424,7 +1424,7 @@
         <v>Academics</v>
       </c>
       <c r="C73" t="str">
-        <v>/academics/early-acceptance-dental-andor-osteopathic-medicine-programs</v>
+        <v>/academics/medieval-studies-minor</v>
       </c>
       <c r="D73" t="str">
         <v>Basic Page</v>
@@ -1438,7 +1438,7 @@
         <v>Academics</v>
       </c>
       <c r="C74" t="str">
-        <v>/academics/medieval-studies-minor</v>
+        <v>/academics/accelerated-masters-history-or-cultural-studies</v>
       </c>
       <c r="D74" t="str">
         <v>Basic Page</v>
@@ -1452,7 +1452,7 @@
         <v>Academics</v>
       </c>
       <c r="C75" t="str">
-        <v>/academics/accelerated-masters-history-or-cultural-studies</v>
+        <v>/academics/early-acceptance-dental-andor-osteopathic-medicine-programs</v>
       </c>
       <c r="D75" t="str">
         <v>Basic Page</v>
@@ -1690,7 +1690,7 @@
         <v>Access Opportunity Programs</v>
       </c>
       <c r="C92" t="str">
-        <v>/aop/programs</v>
+        <v>/aop/request-information-about-aop</v>
       </c>
       <c r="D92" t="str">
         <v>Basic Page</v>
@@ -1704,7 +1704,7 @@
         <v>Access Opportunity Programs</v>
       </c>
       <c r="C93" t="str">
-        <v>/aop/links-of-interest</v>
+        <v>/aop/programs</v>
       </c>
       <c r="D93" t="str">
         <v>Basic Page</v>
@@ -1718,7 +1718,7 @@
         <v>Access Opportunity Programs</v>
       </c>
       <c r="C94" t="str">
-        <v>/aop/aop_director_welcome</v>
+        <v>/aop/links-of-interest</v>
       </c>
       <c r="D94" t="str">
         <v>Basic Page</v>
@@ -1732,7 +1732,7 @@
         <v>Access Opportunity Programs</v>
       </c>
       <c r="C95" t="str">
-        <v>/aop/request-information-about-aop</v>
+        <v>/aop/aop_director_welcome</v>
       </c>
       <c r="D95" t="str">
         <v>Basic Page</v>
@@ -2824,7 +2824,7 @@
         <v>Alumni</v>
       </c>
       <c r="C173" t="str">
-        <v>/alumni/geneseo-storyteller-gregory-pellerin-89</v>
+        <v>/alumni/geneseo-storyteller-barbara-vilardo-74</v>
       </c>
       <c r="D173" t="str">
         <v>Department News</v>
@@ -2838,7 +2838,7 @@
         <v>Alumni</v>
       </c>
       <c r="C174" t="str">
-        <v>/alumni/geneseo-storyteller-humayun-lone-81</v>
+        <v>/alumni/geneseo-storyteller-mark-versace-79</v>
       </c>
       <c r="D174" t="str">
         <v>Department News</v>
@@ -2852,7 +2852,7 @@
         <v>Alumni</v>
       </c>
       <c r="C175" t="str">
-        <v>/alumni/geneseo-storyteller-barbara-vilardo-74</v>
+        <v>/alumni/geneseo-storyteller-peter-coach-f-herrmann-70</v>
       </c>
       <c r="D175" t="str">
         <v>Department News</v>
@@ -2866,7 +2866,7 @@
         <v>Alumni</v>
       </c>
       <c r="C176" t="str">
-        <v>/alumni/geneseo-storyteller-mark-versace-79</v>
+        <v>/alumni/geneseo-storyteller-karen-woodward-84</v>
       </c>
       <c r="D176" t="str">
         <v>Department News</v>
@@ -2880,7 +2880,7 @@
         <v>Alumni</v>
       </c>
       <c r="C177" t="str">
-        <v>/alumni/geneseo-storyteller-peter-coach-f-herrmann-70</v>
+        <v>/alumni/geneseo-storyteller-gregory-pellerin-89</v>
       </c>
       <c r="D177" t="str">
         <v>Department News</v>
@@ -2894,7 +2894,7 @@
         <v>Alumni</v>
       </c>
       <c r="C178" t="str">
-        <v>/alumni/geneseo-storyteller-karen-woodward-84</v>
+        <v>/alumni/geneseo-storyteller-humayun-lone-81</v>
       </c>
       <c r="D178" t="str">
         <v>Department News</v>
@@ -3104,7 +3104,7 @@
         <v>Alumni</v>
       </c>
       <c r="C193" t="str">
-        <v>/alumni/thank-you</v>
+        <v>/alumni/get-involved</v>
       </c>
       <c r="D193" t="str">
         <v>Basic Page</v>
@@ -3118,7 +3118,7 @@
         <v>Alumni</v>
       </c>
       <c r="C194" t="str">
-        <v>/alumni/alumni-event-photos</v>
+        <v>/alumni/thank-you</v>
       </c>
       <c r="D194" t="str">
         <v>Basic Page</v>
@@ -3132,7 +3132,7 @@
         <v>Alumni</v>
       </c>
       <c r="C195" t="str">
-        <v>/alumni/thank-you-0</v>
+        <v>/alumni/alumni-event-photos</v>
       </c>
       <c r="D195" t="str">
         <v>Basic Page</v>
@@ -3146,7 +3146,7 @@
         <v>Alumni</v>
       </c>
       <c r="C196" t="str">
-        <v>/alumni/sgaa/awards</v>
+        <v>/alumni/thank-you-0</v>
       </c>
       <c r="D196" t="str">
         <v>Basic Page</v>
@@ -5764,7 +5764,7 @@
         <v>Geological, Environmental, and Planetary Sciences</v>
       </c>
       <c r="C383" t="str">
-        <v>/geology/facilities-department-geological-sciences</v>
+        <v>/geology/scholarships</v>
       </c>
       <c r="D383" t="str">
         <v>Basic Page</v>
@@ -5778,7 +5778,7 @@
         <v>Geological, Environmental, and Planetary Sciences</v>
       </c>
       <c r="C384" t="str">
-        <v>/geology/scholarships</v>
+        <v>/geology/prospective_students</v>
       </c>
       <c r="D384" t="str">
         <v>Basic Page</v>
@@ -5792,7 +5792,7 @@
         <v>Geological, Environmental, and Planetary Sciences</v>
       </c>
       <c r="C385" t="str">
-        <v>/geology/prospective_students</v>
+        <v>/geology/grad_schools_attended</v>
       </c>
       <c r="D385" t="str">
         <v>Basic Page</v>
@@ -5806,7 +5806,7 @@
         <v>Geological, Environmental, and Planetary Sciences</v>
       </c>
       <c r="C386" t="str">
-        <v>/geology/grad_schools_attended</v>
+        <v>/geology/facilities-department-geological-sciences</v>
       </c>
       <c r="D386" t="str">
         <v>Basic Page</v>
@@ -5820,7 +5820,7 @@
         <v>Geological, Environmental, and Planetary Sciences</v>
       </c>
       <c r="C387" t="str">
-        <v>/geology/megathlin_award</v>
+        <v>/geology/teaching_resource</v>
       </c>
       <c r="D387" t="str">
         <v>Basic Page</v>
@@ -5834,7 +5834,7 @@
         <v>Geological, Environmental, and Planetary Sciences</v>
       </c>
       <c r="C388" t="str">
-        <v>/geology/field_camp_scholarship</v>
+        <v>/geology/center</v>
       </c>
       <c r="D388" t="str">
         <v>Basic Page</v>
@@ -5848,7 +5848,7 @@
         <v>Geological, Environmental, and Planetary Sciences</v>
       </c>
       <c r="C389" t="str">
-        <v>/geology/teaching_resource</v>
+        <v>/geology/intern</v>
       </c>
       <c r="D389" t="str">
         <v>Basic Page</v>
@@ -5862,7 +5862,7 @@
         <v>Geological, Environmental, and Planetary Sciences</v>
       </c>
       <c r="C390" t="str">
-        <v>/geology/center</v>
+        <v>/geology/grad_school_interviews</v>
       </c>
       <c r="D390" t="str">
         <v>Basic Page</v>
@@ -5876,7 +5876,7 @@
         <v>Geological, Environmental, and Planetary Sciences</v>
       </c>
       <c r="C391" t="str">
-        <v>/geology/intern</v>
+        <v>/geology/field-camps</v>
       </c>
       <c r="D391" t="str">
         <v>Basic Page</v>
@@ -5890,7 +5890,7 @@
         <v>Geological, Environmental, and Planetary Sciences</v>
       </c>
       <c r="C392" t="str">
-        <v>/geology/grad_school_interviews</v>
+        <v>/geology/megathlin_award</v>
       </c>
       <c r="D392" t="str">
         <v>Basic Page</v>
@@ -5904,7 +5904,7 @@
         <v>Geological, Environmental, and Planetary Sciences</v>
       </c>
       <c r="C393" t="str">
-        <v>/geology/field-camps</v>
+        <v>/geology/field_camp_scholarship</v>
       </c>
       <c r="D393" t="str">
         <v>Basic Page</v>
@@ -5946,7 +5946,7 @@
         <v>Geological, Environmental, and Planetary Sciences</v>
       </c>
       <c r="C396" t="str">
-        <v>/geology/nick-warner-assistant-professor-geological-sciences-wins-nasa-group-award</v>
+        <v>/geology/geology-faculty-member-nick-warner-receives-nasa-grant</v>
       </c>
       <c r="D396" t="str">
         <v>Department News</v>
@@ -5960,7 +5960,7 @@
         <v>Geological, Environmental, and Planetary Sciences</v>
       </c>
       <c r="C397" t="str">
-        <v>/geology/geology-faculty-member-nick-warner-receives-nasa-grant</v>
+        <v>/geology/nick-warner-assistant-professor-geological-sciences-wins-nasa-group-award</v>
       </c>
       <c r="D397" t="str">
         <v>Department News</v>
@@ -6772,7 +6772,7 @@
         <v>History</v>
       </c>
       <c r="C455" t="str">
-        <v>/history/tamarin</v>
+        <v>/history/publications</v>
       </c>
       <c r="D455" t="str">
         <v>Basic Page</v>
@@ -6786,7 +6786,7 @@
         <v>History</v>
       </c>
       <c r="C456" t="str">
-        <v>/history/conference_papers</v>
+        <v>/history/projects</v>
       </c>
       <c r="D456" t="str">
         <v>Basic Page</v>
@@ -6800,7 +6800,7 @@
         <v>History</v>
       </c>
       <c r="C457" t="str">
-        <v>/history/publications</v>
+        <v>/history/stolee</v>
       </c>
       <c r="D457" t="str">
         <v>Basic Page</v>
@@ -6814,7 +6814,7 @@
         <v>History</v>
       </c>
       <c r="C458" t="str">
-        <v>/history/projects</v>
+        <v>/history/history_alumni_newsletter</v>
       </c>
       <c r="D458" t="str">
         <v>Basic Page</v>
@@ -6828,7 +6828,7 @@
         <v>History</v>
       </c>
       <c r="C459" t="str">
-        <v>/history/stolee</v>
+        <v>/history/bill-gohlman</v>
       </c>
       <c r="D459" t="str">
         <v>Basic Page</v>
@@ -6842,7 +6842,7 @@
         <v>History</v>
       </c>
       <c r="C460" t="str">
-        <v>/history/history_alumni_newsletter</v>
+        <v>/history/hon</v>
       </c>
       <c r="D460" t="str">
         <v>Basic Page</v>
@@ -6856,7 +6856,7 @@
         <v>History</v>
       </c>
       <c r="C461" t="str">
-        <v>/history/bill-gohlman</v>
+        <v>/history/phi_alpha_theta</v>
       </c>
       <c r="D461" t="str">
         <v>Basic Page</v>
@@ -6870,7 +6870,7 @@
         <v>History</v>
       </c>
       <c r="C462" t="str">
-        <v>/history/hon</v>
+        <v>/history/tzeki_hon/additional-information</v>
       </c>
       <c r="D462" t="str">
         <v>Basic Page</v>
@@ -6884,7 +6884,7 @@
         <v>History</v>
       </c>
       <c r="C463" t="str">
-        <v>/history/phi_alpha_theta</v>
+        <v>/history/why</v>
       </c>
       <c r="D463" t="str">
         <v>Basic Page</v>
@@ -7332,7 +7332,7 @@
         <v>Human Resources</v>
       </c>
       <c r="C495" t="str">
-        <v>/hr/new-employees-set-yourself-success</v>
+        <v>/hr/relocate-to-geneseo</v>
       </c>
       <c r="D495" t="str">
         <v>Basic Page</v>
@@ -7346,7 +7346,7 @@
         <v>Human Resources</v>
       </c>
       <c r="C496" t="str">
-        <v>/hr/relocate-to-geneseo</v>
+        <v>/hr/new-employees-set-yourself-success</v>
       </c>
       <c r="D496" t="str">
         <v>Basic Page</v>
@@ -7360,7 +7360,7 @@
         <v>Human Resources</v>
       </c>
       <c r="C497" t="str">
-        <v>/hr/new-student-forms</v>
+        <v>/hr/first-weeks</v>
       </c>
       <c r="D497" t="str">
         <v>Basic Page</v>
@@ -7374,7 +7374,7 @@
         <v>Human Resources</v>
       </c>
       <c r="C498" t="str">
-        <v>/hr/you-start-work-geneseo</v>
+        <v>/hr/employees-your-first-year-and-beyond</v>
       </c>
       <c r="D498" t="str">
         <v>Basic Page</v>
@@ -7388,7 +7388,7 @@
         <v>Human Resources</v>
       </c>
       <c r="C499" t="str">
-        <v>/hr/first-weeks</v>
+        <v>/hr/new-student-forms</v>
       </c>
       <c r="D499" t="str">
         <v>Basic Page</v>
@@ -7402,7 +7402,7 @@
         <v>Human Resources</v>
       </c>
       <c r="C500" t="str">
-        <v>/hr/employees-your-first-year-and-beyond</v>
+        <v>/hr/you-start-work-geneseo</v>
       </c>
       <c r="D500" t="str">
         <v>Basic Page</v>
@@ -13492,7 +13492,7 @@
         <v>Student Association</v>
       </c>
       <c r="C935" t="str">
-        <v>/sa/resources/logos</v>
+        <v>/sa/about-us/fee</v>
       </c>
       <c r="D935" t="str">
         <v>Basic Page</v>
@@ -13506,7 +13506,7 @@
         <v>Student Association</v>
       </c>
       <c r="C936" t="str">
-        <v>/sa/resources</v>
+        <v>/sa/irc</v>
       </c>
       <c r="D936" t="str">
         <v>Basic Page</v>
@@ -13520,7 +13520,7 @@
         <v>Student Association</v>
       </c>
       <c r="C937" t="str">
-        <v>/sa/event-promotion</v>
+        <v>/sa/resources/logos</v>
       </c>
       <c r="D937" t="str">
         <v>Basic Page</v>
@@ -13534,7 +13534,7 @@
         <v>Student Association</v>
       </c>
       <c r="C938" t="str">
-        <v>/sa/about-us/fee</v>
+        <v>/sa/resources</v>
       </c>
       <c r="D938" t="str">
         <v>Basic Page</v>
@@ -13548,7 +13548,7 @@
         <v>Student Association</v>
       </c>
       <c r="C939" t="str">
-        <v>/sa/irc</v>
+        <v>/sa/event-promotion</v>
       </c>
       <c r="D939" t="str">
         <v>Basic Page</v>
@@ -14766,7 +14766,7 @@
         <v>Student Life</v>
       </c>
       <c r="C1026" t="str">
-        <v>/student_life/educational-initiatives</v>
+        <v>/student_life/summer-experience-programs/adirondack-leadership</v>
       </c>
       <c r="D1026" t="str">
         <v>Basic Page</v>
@@ -14780,7 +14780,7 @@
         <v>Student Life</v>
       </c>
       <c r="C1027" t="str">
-        <v>/student_life/lesson-plan-template</v>
+        <v>/student_life/summer-experience-programs/adirondack-leadership/faculty</v>
       </c>
       <c r="D1027" t="str">
         <v>Basic Page</v>
@@ -14794,7 +14794,7 @@
         <v>Student Life</v>
       </c>
       <c r="C1028" t="str">
-        <v>/student_life/social-justice-experience</v>
+        <v>/student_life/educational-initiatives</v>
       </c>
       <c r="D1028" t="str">
         <v>Basic Page</v>
@@ -14808,7 +14808,7 @@
         <v>Student Life</v>
       </c>
       <c r="C1029" t="str">
-        <v>/student_life/summer-experience-programs/adirondack-leadership</v>
+        <v>/student_life/lesson-plan-template</v>
       </c>
       <c r="D1029" t="str">
         <v>Basic Page</v>
@@ -14822,7 +14822,7 @@
         <v>Student Life</v>
       </c>
       <c r="C1030" t="str">
-        <v>/student_life/summer-experience-programs/adirondack-leadership/faculty</v>
+        <v>/student_life/social-justice-experience</v>
       </c>
       <c r="D1030" t="str">
         <v>Basic Page</v>
@@ -14864,7 +14864,7 @@
         <v>Student Life</v>
       </c>
       <c r="C1033" t="str">
-        <v>/student_life/new-student-connections-and-successes</v>
+        <v>/student_life/college-registered-student-organizations-full-registration</v>
       </c>
       <c r="D1033" t="str">
         <v>Basic Page</v>
@@ -14878,7 +14878,7 @@
         <v>Student Life</v>
       </c>
       <c r="C1034" t="str">
-        <v>/student_life/student-involvement-fair</v>
+        <v>/student_life/new-student-connections-and-successes</v>
       </c>
       <c r="D1034" t="str">
         <v>Basic Page</v>
@@ -14892,7 +14892,7 @@
         <v>Student Life</v>
       </c>
       <c r="C1035" t="str">
-        <v>/student_life/social-justice-experience/course-description</v>
+        <v>/student_life/student-involvement-fair</v>
       </c>
       <c r="D1035" t="str">
         <v>Basic Page</v>
@@ -14906,7 +14906,7 @@
         <v>Student Life</v>
       </c>
       <c r="C1036" t="str">
-        <v>/student_life/college-registered-student-organizations-full-registration</v>
+        <v>/student_life/social-justice-experience/course-description</v>
       </c>
       <c r="D1036" t="str">
         <v>Basic Page</v>
@@ -15536,7 +15536,7 @@
         <v>Study Abroad</v>
       </c>
       <c r="C1081" t="str">
-        <v>/study_abroad/general-study-abroad-scholarships</v>
+        <v>/study_abroad/costa-rica-semester</v>
       </c>
       <c r="D1081" t="str">
         <v>Basic Page</v>
@@ -15550,7 +15550,7 @@
         <v>Study Abroad</v>
       </c>
       <c r="C1082" t="str">
-        <v>/study_abroad/costa-rica-semester</v>
+        <v>/study_abroad/hispaniclatin-american-students-abroad</v>
       </c>
       <c r="D1082" t="str">
         <v>Basic Page</v>
@@ -15564,7 +15564,7 @@
         <v>Study Abroad</v>
       </c>
       <c r="C1083" t="str">
-        <v>/study_abroad/hispaniclatin-american-students-abroad</v>
+        <v>/study_abroad/financial-aid-information</v>
       </c>
       <c r="D1083" t="str">
         <v>Basic Page</v>
@@ -15578,7 +15578,7 @@
         <v>Study Abroad</v>
       </c>
       <c r="C1084" t="str">
-        <v>/study_abroad/financial-aid-information</v>
+        <v>/study_abroad/general-study-abroad-scholarships</v>
       </c>
       <c r="D1084" t="str">
         <v>Basic Page</v>
@@ -16026,10 +16026,10 @@
         <v>Support Geneseo</v>
       </c>
       <c r="C1116" t="str">
-        <v>/support/thank-you</v>
+        <v>/support/doug-89-and-stephanie-nelson-89-dickman</v>
       </c>
       <c r="D1116" t="str">
-        <v>Basic Page</v>
+        <v>Department News</v>
       </c>
     </row>
     <row r="1117">
@@ -16040,7 +16040,7 @@
         <v>Support Geneseo</v>
       </c>
       <c r="C1117" t="str">
-        <v>/support/new-scholarship-music-students-created-memory-william-d-leyerle</v>
+        <v>/support/sharon-bonk-65</v>
       </c>
       <c r="D1117" t="str">
         <v>Department News</v>
@@ -16054,7 +16054,7 @@
         <v>Support Geneseo</v>
       </c>
       <c r="C1118" t="str">
-        <v>/support/doug-89-and-stephanie-nelson-89-dickman</v>
+        <v>/support/paul-peterman-80-celebrates-professor-emeritus-geology-richard-hatheway</v>
       </c>
       <c r="D1118" t="str">
         <v>Department News</v>
@@ -16068,7 +16068,7 @@
         <v>Support Geneseo</v>
       </c>
       <c r="C1119" t="str">
-        <v>/support/sharon-bonk-65</v>
+        <v>/support/jeff-83-and-suzette-clarke</v>
       </c>
       <c r="D1119" t="str">
         <v>Department News</v>
@@ -16082,10 +16082,10 @@
         <v>Support Geneseo</v>
       </c>
       <c r="C1120" t="str">
-        <v>/support/paul-peterman-80-celebrates-professor-emeritus-geology-richard-hatheway</v>
+        <v>/support/thank-you</v>
       </c>
       <c r="D1120" t="str">
-        <v>Department News</v>
+        <v>Basic Page</v>
       </c>
     </row>
     <row r="1121">
@@ -16096,7 +16096,7 @@
         <v>Support Geneseo</v>
       </c>
       <c r="C1121" t="str">
-        <v>/support/jeff-83-and-suzette-clarke</v>
+        <v>/support/new-scholarship-music-students-created-memory-william-d-leyerle</v>
       </c>
       <c r="D1121" t="str">
         <v>Department News</v>
@@ -16152,7 +16152,7 @@
         <v>Support Geneseo</v>
       </c>
       <c r="C1125" t="str">
-        <v>/support/1871-leadership-society</v>
+        <v>/support/foundation-ethics</v>
       </c>
       <c r="D1125" t="str">
         <v>Basic Page</v>
@@ -16166,7 +16166,7 @@
         <v>Support Geneseo</v>
       </c>
       <c r="C1126" t="str">
-        <v>/support/macvittie-legacy-society</v>
+        <v>/support/financial-and-legal-info</v>
       </c>
       <c r="D1126" t="str">
         <v>Basic Page</v>
@@ -16180,7 +16180,7 @@
         <v>Support Geneseo</v>
       </c>
       <c r="C1127" t="str">
-        <v>/support/endowment</v>
+        <v>/support/alumni-class-leadership</v>
       </c>
       <c r="D1127" t="str">
         <v>Basic Page</v>
@@ -16194,7 +16194,7 @@
         <v>Support Geneseo</v>
       </c>
       <c r="C1128" t="str">
-        <v>/support/foundation-ethics</v>
+        <v>/support/1871-leadership-society</v>
       </c>
       <c r="D1128" t="str">
         <v>Basic Page</v>
@@ -16208,7 +16208,7 @@
         <v>Support Geneseo</v>
       </c>
       <c r="C1129" t="str">
-        <v>/support/financial-and-legal-info</v>
+        <v>/support/macvittie-legacy-society</v>
       </c>
       <c r="D1129" t="str">
         <v>Basic Page</v>
@@ -16222,7 +16222,7 @@
         <v>Support Geneseo</v>
       </c>
       <c r="C1130" t="str">
-        <v>/support/alumni-class-leadership</v>
+        <v>/support/endowment</v>
       </c>
       <c r="D1130" t="str">
         <v>Basic Page</v>
@@ -16320,7 +16320,7 @@
         <v>Global Languages and Cultures</v>
       </c>
       <c r="C1137" t="str">
-        <v>/global-languages-cultures/congratulations-new-inductees-our-honor-societies</v>
+        <v>/global-languages-cultures/dr-kodjo-adabras-book-signing-event</v>
       </c>
       <c r="D1137" t="str">
         <v>Department News</v>
@@ -16334,7 +16334,7 @@
         <v>Global Languages and Cultures</v>
       </c>
       <c r="C1138" t="str">
-        <v>/global-languages-cultures/department-global-languages-and-cultures-annual-awards-ceremony</v>
+        <v>/global-languages-cultures/supporting-ukraine-diversity-summit</v>
       </c>
       <c r="D1138" t="str">
         <v>Department News</v>
@@ -16348,7 +16348,7 @@
         <v>Global Languages and Cultures</v>
       </c>
       <c r="C1139" t="str">
-        <v>/languages_literatures/writing_requirement</v>
+        <v>/languages_literatures/Nosotros%20-%20About%20us</v>
       </c>
       <c r="D1139" t="str">
         <v>Basic Page</v>
@@ -16362,10 +16362,10 @@
         <v>Global Languages and Cultures</v>
       </c>
       <c r="C1140" t="str">
-        <v>/global-languages-cultures/cultures-learning-together-featured-grhf-report</v>
+        <v>/global-languages-cultures/minor-european-studies</v>
       </c>
       <c r="D1140" t="str">
-        <v>Department News</v>
+        <v>Basic Page</v>
       </c>
     </row>
     <row r="1141">
@@ -16376,7 +16376,7 @@
         <v>Global Languages and Cultures</v>
       </c>
       <c r="C1141" t="str">
-        <v>/global-languages-cultures/sociocultural-mediator-spanish</v>
+        <v>/languages_literatures/directed_study_policy</v>
       </c>
       <c r="D1141" t="str">
         <v>Basic Page</v>
@@ -16390,7 +16390,7 @@
         <v>Global Languages and Cultures</v>
       </c>
       <c r="C1142" t="str">
-        <v>/global-languages-cultures/dr-kodjo-adabras-book-signing-event</v>
+        <v>/global-languages-cultures/congratulations-new-inductees-our-honor-societies</v>
       </c>
       <c r="D1142" t="str">
         <v>Department News</v>
@@ -16404,7 +16404,7 @@
         <v>Global Languages and Cultures</v>
       </c>
       <c r="C1143" t="str">
-        <v>/global-languages-cultures/supporting-ukraine-diversity-summit</v>
+        <v>/global-languages-cultures/department-global-languages-and-cultures-annual-awards-ceremony</v>
       </c>
       <c r="D1143" t="str">
         <v>Department News</v>
@@ -16418,7 +16418,7 @@
         <v>Global Languages and Cultures</v>
       </c>
       <c r="C1144" t="str">
-        <v>/languages_literatures/Nosotros%20-%20About%20us</v>
+        <v>/languages_literatures/writing_requirement</v>
       </c>
       <c r="D1144" t="str">
         <v>Basic Page</v>
@@ -16432,10 +16432,10 @@
         <v>Global Languages and Cultures</v>
       </c>
       <c r="C1145" t="str">
-        <v>/global-languages-cultures/minor-european-studies</v>
+        <v>/global-languages-cultures/cultures-learning-together-featured-grhf-report</v>
       </c>
       <c r="D1145" t="str">
-        <v>Basic Page</v>
+        <v>Department News</v>
       </c>
     </row>
     <row r="1146">
@@ -16446,7 +16446,7 @@
         <v>Global Languages and Cultures</v>
       </c>
       <c r="C1146" t="str">
-        <v>/languages_literatures/directed_study_policy</v>
+        <v>/global-languages-cultures/sociocultural-mediator-spanish</v>
       </c>
       <c r="D1146" t="str">
         <v>Basic Page</v>
@@ -16460,10 +16460,10 @@
         <v>Global Languages and Cultures</v>
       </c>
       <c r="C1147" t="str">
-        <v>/languages_literatures//adabra_chancellors_award</v>
+        <v>/global-languages-cultures/dr-padron-visits-department-global-languages-and-cultures</v>
       </c>
       <c r="D1147" t="str">
-        <v>Basic Page</v>
+        <v>Department News</v>
       </c>
     </row>
     <row r="1148">
@@ -16474,7 +16474,7 @@
         <v>Global Languages and Cultures</v>
       </c>
       <c r="C1148" t="str">
-        <v>/languages_literatures//hispanicheritagemonth</v>
+        <v>/languages_literatures//adabra_chancellors_award</v>
       </c>
       <c r="D1148" t="str">
         <v>Basic Page</v>
@@ -16488,7 +16488,7 @@
         <v>Global Languages and Cultures</v>
       </c>
       <c r="C1149" t="str">
-        <v>/languages_literatures//european_studies_minor</v>
+        <v>/languages_literatures//hispanicheritagemonth</v>
       </c>
       <c r="D1149" t="str">
         <v>Basic Page</v>
@@ -16502,10 +16502,10 @@
         <v>Global Languages and Cultures</v>
       </c>
       <c r="C1150" t="str">
-        <v>/global-languages-cultures/student-awards-dllaac-2022</v>
+        <v>/languages_literatures//european_studies_minor</v>
       </c>
       <c r="D1150" t="str">
-        <v>Department News</v>
+        <v>Basic Page</v>
       </c>
     </row>
     <row r="1151">
@@ -16516,7 +16516,7 @@
         <v>Global Languages and Cultures</v>
       </c>
       <c r="C1151" t="str">
-        <v>/global-languages-cultures/dr-kodjo-adabra-was-awarded-james-julia-lockhart-endowed-professorship</v>
+        <v>/global-languages-cultures/student-awards-dllaac-2022</v>
       </c>
       <c r="D1151" t="str">
         <v>Department News</v>
@@ -16530,7 +16530,7 @@
         <v>Global Languages and Cultures</v>
       </c>
       <c r="C1152" t="str">
-        <v>/global-languages-cultures/weeks-welcome-2022</v>
+        <v>/global-languages-cultures/dr-kodjo-adabra-was-awarded-james-julia-lockhart-endowed-professorship</v>
       </c>
       <c r="D1152" t="str">
         <v>Department News</v>
@@ -16544,7 +16544,7 @@
         <v>Global Languages and Cultures</v>
       </c>
       <c r="C1153" t="str">
-        <v>/global-languages-cultures/dr-padron-visits-department-global-languages-and-cultures</v>
+        <v>/global-languages-cultures/weeks-welcome-2022</v>
       </c>
       <c r="D1153" t="str">
         <v>Department News</v>
@@ -16558,7 +16558,7 @@
         <v>Global Languages and Cultures</v>
       </c>
       <c r="C1154" t="str">
-        <v>/global-languages-cultures/tutoring-cultural-activities</v>
+        <v>/languages_literatures/Willard%20Heller%20receives%20Anthony%20J.%20Papalia%20Award</v>
       </c>
       <c r="D1154" t="str">
         <v>Basic Page</v>
@@ -16572,7 +16572,7 @@
         <v>Global Languages and Cultures</v>
       </c>
       <c r="C1155" t="str">
-        <v>/languages_literatures//2019-national-french-week</v>
+        <v>/global-languages-cultures/tutoring-cultural-activities</v>
       </c>
       <c r="D1155" t="str">
         <v>Basic Page</v>
@@ -16586,7 +16586,7 @@
         <v>Global Languages and Cultures</v>
       </c>
       <c r="C1156" t="str">
-        <v>/languages_literatures//sharonaward</v>
+        <v>/languages_literatures//2019-national-french-week</v>
       </c>
       <c r="D1156" t="str">
         <v>Basic Page</v>
@@ -16600,7 +16600,7 @@
         <v>Global Languages and Cultures</v>
       </c>
       <c r="C1157" t="str">
-        <v>/languages_literatures/Willard%20Heller%20receives%20Anthony%20J.%20Papalia%20Award</v>
+        <v>/languages_literatures//sharonaward</v>
       </c>
       <c r="D1157" t="str">
         <v>Basic Page</v>
@@ -19302,7 +19302,7 @@
         <v>Sponsored Research</v>
       </c>
       <c r="C1350" t="str">
-        <v>/sponsored_research/proposal-fall-2020-sstem-award</v>
+        <v>/sponsored_research/proposal-f18-student-brady</v>
       </c>
       <c r="D1350" t="str">
         <v>Basic Page</v>
@@ -19316,7 +19316,7 @@
         <v>Sponsored Research</v>
       </c>
       <c r="C1351" t="str">
-        <v>/sponsored_research/proposal-fall-2020-nsf-iuse-award</v>
+        <v>/sponsored_research/proposal-spring-19-faculty-militello-odonnell</v>
       </c>
       <c r="D1351" t="str">
         <v>Basic Page</v>
@@ -19330,7 +19330,7 @@
         <v>Sponsored Research</v>
       </c>
       <c r="C1352" t="str">
-        <v>/sponsored_research/proposal-fall-2020-student-spotlight-1</v>
+        <v>/sponsored_research/proposal-spring-19-urso</v>
       </c>
       <c r="D1352" t="str">
         <v>Basic Page</v>
@@ -19344,7 +19344,7 @@
         <v>Sponsored Research</v>
       </c>
       <c r="C1353" t="str">
-        <v>/sponsored_research/proposal-fall-2020-student-spotlight-2</v>
+        <v>/sponsored_research/proposal-spring-19-student-feeder-watch</v>
       </c>
       <c r="D1353" t="str">
         <v>Basic Page</v>
@@ -19358,7 +19358,7 @@
         <v>Sponsored Research</v>
       </c>
       <c r="C1354" t="str">
-        <v>/sponsored_research/proposal-fall-2020-faculty-focus-myzelev</v>
+        <v>/sponsored_research/proposal-spring-2019-student-safe-zone</v>
       </c>
       <c r="D1354" t="str">
         <v>Basic Page</v>
@@ -19372,7 +19372,7 @@
         <v>Sponsored Research</v>
       </c>
       <c r="C1355" t="str">
-        <v>/sponsored_research/proposal-writing-support-revised</v>
+        <v>/sponsored_research/proposal-fall-2020-sstem-award</v>
       </c>
       <c r="D1355" t="str">
         <v>Basic Page</v>
@@ -19386,7 +19386,7 @@
         <v>Sponsored Research</v>
       </c>
       <c r="C1356" t="str">
-        <v>/sponsored_research/technology-transfer-information</v>
+        <v>/sponsored_research/proposal-fall-2020-nsf-iuse-award</v>
       </c>
       <c r="D1356" t="str">
         <v>Basic Page</v>
@@ -19400,7 +19400,7 @@
         <v>Sponsored Research</v>
       </c>
       <c r="C1357" t="str">
-        <v>/sponsored_research/proposal-f18-faculty-ozubko</v>
+        <v>/sponsored_research/proposal-fall-2020-student-spotlight-1</v>
       </c>
       <c r="D1357" t="str">
         <v>Basic Page</v>
@@ -19414,7 +19414,7 @@
         <v>Sponsored Research</v>
       </c>
       <c r="C1358" t="str">
-        <v>/sponsored_research/proposal-f18-faculty-warner</v>
+        <v>/sponsored_research/proposal-fall-2020-student-spotlight-2</v>
       </c>
       <c r="D1358" t="str">
         <v>Basic Page</v>
@@ -19428,7 +19428,7 @@
         <v>Sponsored Research</v>
       </c>
       <c r="C1359" t="str">
-        <v>/sponsored_research/proposal-f18-student-vinal</v>
+        <v>/sponsored_research/proposal-fall-2020-faculty-focus-myzelev</v>
       </c>
       <c r="D1359" t="str">
         <v>Basic Page</v>
@@ -19442,7 +19442,7 @@
         <v>Sponsored Research</v>
       </c>
       <c r="C1360" t="str">
-        <v>/sponsored_research/proposal-f18-student-brady</v>
+        <v>/sponsored_research/proposal-writing-support-revised</v>
       </c>
       <c r="D1360" t="str">
         <v>Basic Page</v>
@@ -19456,7 +19456,7 @@
         <v>Sponsored Research</v>
       </c>
       <c r="C1361" t="str">
-        <v>/sponsored_research/proposal-spring-19-faculty-militello-odonnell</v>
+        <v>/sponsored_research/technology-transfer-information</v>
       </c>
       <c r="D1361" t="str">
         <v>Basic Page</v>
@@ -19904,7 +19904,7 @@
         <v>Psychology Club</v>
       </c>
       <c r="C1393" t="str">
-        <v>/psychology_club/careerresources</v>
+        <v>/psychology_club/constitution</v>
       </c>
       <c r="D1393" t="str">
         <v>Basic Page</v>
@@ -19918,7 +19918,7 @@
         <v>Psychology Club</v>
       </c>
       <c r="C1394" t="str">
-        <v>/psychology_club/google-calender-volunteering</v>
+        <v>/psychology/carol-kramer</v>
       </c>
       <c r="D1394" t="str">
         <v>Basic Page</v>
@@ -19932,7 +19932,7 @@
         <v>Psychology Club</v>
       </c>
       <c r="C1395" t="str">
-        <v>/psychology_club/constitution</v>
+        <v>/psychology_club/careerresources</v>
       </c>
       <c r="D1395" t="str">
         <v>Basic Page</v>
@@ -19946,7 +19946,7 @@
         <v>Psychology Club</v>
       </c>
       <c r="C1396" t="str">
-        <v>/psychology/carol-kramer</v>
+        <v>/psychology_club/google-calender-volunteering</v>
       </c>
       <c r="D1396" t="str">
         <v>Basic Page</v>
@@ -21220,7 +21220,7 @@
         <v>Office of the Provost</v>
       </c>
       <c r="C1487" t="str">
-        <v>/provost/calendar</v>
+        <v>/provost/copyright</v>
       </c>
       <c r="D1487" t="str">
         <v>Basic Page</v>
@@ -21234,7 +21234,7 @@
         <v>Office of the Provost</v>
       </c>
       <c r="C1488" t="str">
-        <v>/provost/copyright</v>
+        <v>/provost/calendar</v>
       </c>
       <c r="D1488" t="str">
         <v>Basic Page</v>
@@ -22102,7 +22102,7 @@
         <v>Police</v>
       </c>
       <c r="C1550" t="str">
-        <v>/police/policies</v>
+        <v>/police/file-compliment-complaint</v>
       </c>
       <c r="D1550" t="str">
         <v>Basic Page</v>
@@ -22116,7 +22116,7 @@
         <v>Police</v>
       </c>
       <c r="C1551" t="str">
-        <v>/police/personal-safety-resources</v>
+        <v>/police/policies</v>
       </c>
       <c r="D1551" t="str">
         <v>Basic Page</v>
@@ -22130,7 +22130,7 @@
         <v>Police</v>
       </c>
       <c r="C1552" t="str">
-        <v>/police/file-compliment-complaint</v>
+        <v>/police/personal-safety-resources</v>
       </c>
       <c r="D1552" t="str">
         <v>Basic Page</v>
@@ -22144,7 +22144,7 @@
         <v>Police</v>
       </c>
       <c r="C1553" t="str">
-        <v>/police/suny_first_response</v>
+        <v>/police/csa-crime-incident-report</v>
       </c>
       <c r="D1553" t="str">
         <v>Basic Page</v>
@@ -22158,7 +22158,7 @@
         <v>Police</v>
       </c>
       <c r="C1554" t="str">
-        <v>/police/motor_vehicle_accidents</v>
+        <v>/police/silent_witness</v>
       </c>
       <c r="D1554" t="str">
         <v>Basic Page</v>
@@ -22172,7 +22172,7 @@
         <v>Police</v>
       </c>
       <c r="C1555" t="str">
-        <v>/police/blue_lights</v>
+        <v>/police/suny_first_response</v>
       </c>
       <c r="D1555" t="str">
         <v>Basic Page</v>
@@ -22186,7 +22186,7 @@
         <v>Police</v>
       </c>
       <c r="C1556" t="str">
-        <v>/police/college-registry</v>
+        <v>/police/motor_vehicle_accidents</v>
       </c>
       <c r="D1556" t="str">
         <v>Basic Page</v>
@@ -22200,7 +22200,7 @@
         <v>Police</v>
       </c>
       <c r="C1557" t="str">
-        <v>/police/report-online</v>
+        <v>/police/blue_lights</v>
       </c>
       <c r="D1557" t="str">
         <v>Basic Page</v>
@@ -22214,7 +22214,7 @@
         <v>Police</v>
       </c>
       <c r="C1558" t="str">
-        <v>/police/lost</v>
+        <v>/police/college-registry</v>
       </c>
       <c r="D1558" t="str">
         <v>Basic Page</v>
@@ -22228,7 +22228,7 @@
         <v>Police</v>
       </c>
       <c r="C1559" t="str">
-        <v>/police/crime-alerts-archives</v>
+        <v>/police/report-online</v>
       </c>
       <c r="D1559" t="str">
         <v>Basic Page</v>
@@ -22242,7 +22242,7 @@
         <v>Police</v>
       </c>
       <c r="C1560" t="str">
-        <v>/police/csa-crime-incident-report</v>
+        <v>/police/lost</v>
       </c>
       <c r="D1560" t="str">
         <v>Basic Page</v>
@@ -22256,7 +22256,7 @@
         <v>Police</v>
       </c>
       <c r="C1561" t="str">
-        <v>/police/silent_witness</v>
+        <v>/police/crime-alerts-archives</v>
       </c>
       <c r="D1561" t="str">
         <v>Basic Page</v>
@@ -22886,7 +22886,7 @@
         <v>Pre-Law</v>
       </c>
       <c r="C1606" t="str">
-        <v>/prelaw/internships</v>
+        <v>/prelaw/boston-college-law-school-locator-1</v>
       </c>
       <c r="D1606" t="str">
         <v>Basic Page</v>
@@ -22900,7 +22900,7 @@
         <v>Pre-Law</v>
       </c>
       <c r="C1607" t="str">
-        <v>/prelaw/boston-college-law-school-locator-1</v>
+        <v>/prelaw/internships</v>
       </c>
       <c r="D1607" t="str">
         <v>Basic Page</v>
@@ -23670,7 +23670,7 @@
         <v>Kurt Fletcher</v>
       </c>
       <c r="C1662" t="str">
-        <v>/fletcher/time_of_flight_experiment</v>
+        <v>/fletcher/detecting_charged_particles</v>
       </c>
       <c r="D1662" t="str">
         <v>Basic Page</v>
@@ -23684,7 +23684,7 @@
         <v>Kurt Fletcher</v>
       </c>
       <c r="C1663" t="str">
-        <v>/fletcher/deuterated_polymer_targets</v>
+        <v>/physics/webform/references-dr-fletcher</v>
       </c>
       <c r="D1663" t="str">
         <v>Basic Page</v>
@@ -23698,7 +23698,7 @@
         <v>Kurt Fletcher</v>
       </c>
       <c r="C1664" t="str">
-        <v>/fletcher/cloud_chamber</v>
+        <v>/fletcher/time_of_flight_experiment</v>
       </c>
       <c r="D1664" t="str">
         <v>Basic Page</v>
@@ -23712,7 +23712,7 @@
         <v>Kurt Fletcher</v>
       </c>
       <c r="C1665" t="str">
-        <v>/fletcher/undergraduate-summer-research-information</v>
+        <v>/fletcher/deuterated_polymer_targets</v>
       </c>
       <c r="D1665" t="str">
         <v>Basic Page</v>
@@ -23726,7 +23726,7 @@
         <v>Kurt Fletcher</v>
       </c>
       <c r="C1666" t="str">
-        <v>/fletcher/layering_sphere_project</v>
+        <v>/fletcher/cloud_chamber</v>
       </c>
       <c r="D1666" t="str">
         <v>Basic Page</v>
@@ -23740,7 +23740,7 @@
         <v>Kurt Fletcher</v>
       </c>
       <c r="C1667" t="str">
-        <v>/fletcher/detecting_charged_particles</v>
+        <v>/fletcher/undergraduate-summer-research-information</v>
       </c>
       <c r="D1667" t="str">
         <v>Basic Page</v>
@@ -23754,7 +23754,7 @@
         <v>Kurt Fletcher</v>
       </c>
       <c r="C1668" t="str">
-        <v>/physics/webform/references-dr-fletcher</v>
+        <v>/fletcher/layering_sphere_project</v>
       </c>
       <c r="D1668" t="str">
         <v>Basic Page</v>
@@ -24342,7 +24342,7 @@
         <v>Nuclear Physics</v>
       </c>
       <c r="C1710" t="str">
-        <v>/nuclear/plasma-calorimeter</v>
+        <v>/nuclear/deuterated-targets</v>
       </c>
       <c r="D1710" t="str">
         <v>Basic Page</v>
@@ -24356,7 +24356,7 @@
         <v>Nuclear Physics</v>
       </c>
       <c r="C1711" t="str">
-        <v>/nuclear/c12n2n-c11-info</v>
+        <v>/nuclear/1999-aps-meeting-atlanta-georgia</v>
       </c>
       <c r="D1711" t="str">
         <v>Basic Page</v>
@@ -24370,7 +24370,7 @@
         <v>Nuclear Physics</v>
       </c>
       <c r="C1712" t="str">
-        <v>/nuclear/1578-volts-gain-match-check-using-pube-source</v>
+        <v>/nuclear/gamma-ray-spectra</v>
       </c>
       <c r="D1712" t="str">
         <v>Basic Page</v>
@@ -24384,7 +24384,7 @@
         <v>Nuclear Physics</v>
       </c>
       <c r="C1713" t="str">
-        <v>/nuclear/1999-run-9</v>
+        <v>/nuclear/pube-neutron-calibration-geneseo</v>
       </c>
       <c r="D1713" t="str">
         <v>Basic Page</v>
@@ -24398,7 +24398,7 @@
         <v>Nuclear Physics</v>
       </c>
       <c r="C1714" t="str">
-        <v>/nuclear/ca-2001-shot-data-collected</v>
+        <v>/nuclear/1999-run-7</v>
       </c>
       <c r="D1714" t="str">
         <v>Basic Page</v>
@@ -24412,7 +24412,7 @@
         <v>Nuclear Physics</v>
       </c>
       <c r="C1715" t="str">
-        <v>/nuclear/early-stages-etching</v>
+        <v>/nuclear/ca-2001-chart-2</v>
       </c>
       <c r="D1715" t="str">
         <v>Basic Page</v>
@@ -24426,7 +24426,7 @@
         <v>Nuclear Physics</v>
       </c>
       <c r="C1716" t="str">
-        <v>/nuclear/penelope</v>
+        <v>/nuclear/field-view-animation</v>
       </c>
       <c r="D1716" t="str">
         <v>Basic Page</v>
@@ -24440,7 +24440,7 @@
         <v>Nuclear Physics</v>
       </c>
       <c r="C1717" t="str">
-        <v>/nuclear/cr-39</v>
+        <v>/nuclear/current-sem</v>
       </c>
       <c r="D1717" t="str">
         <v>Basic Page</v>
@@ -24454,7 +24454,7 @@
         <v>Nuclear Physics</v>
       </c>
       <c r="C1718" t="str">
-        <v>/nuclear/c12gamman-c11</v>
+        <v>/nuclear/aluminum-activation-results</v>
       </c>
       <c r="D1718" t="str">
         <v>Basic Page</v>
@@ -24468,7 +24468,7 @@
         <v>Nuclear Physics</v>
       </c>
       <c r="C1719" t="str">
-        <v>/nuclear/carbon-activation-data-collected</v>
+        <v>/nuclear/lle-gain-matched-group</v>
       </c>
       <c r="D1719" t="str">
         <v>Basic Page</v>
@@ -24482,7 +24482,7 @@
         <v>Nuclear Physics</v>
       </c>
       <c r="C1720" t="str">
-        <v>/nuclear/1999-run-10</v>
+        <v>/nuclear/1999-run-8</v>
       </c>
       <c r="D1720" t="str">
         <v>Basic Page</v>
@@ -24496,7 +24496,7 @@
         <v>Nuclear Physics</v>
       </c>
       <c r="C1721" t="str">
-        <v>/nuclear/carbon-data-2003</v>
+        <v>/nuclear/ca-2001-chart-3</v>
       </c>
       <c r="D1721" t="str">
         <v>Basic Page</v>
@@ -24510,7 +24510,7 @@
         <v>Nuclear Physics</v>
       </c>
       <c r="C1722" t="str">
-        <v>/nuclear/pit-profiles</v>
+        <v>/nuclear/hole-diameter-vs-etch-time</v>
       </c>
       <c r="D1722" t="str">
         <v>Basic Page</v>
@@ -24524,7 +24524,7 @@
         <v>Nuclear Physics</v>
       </c>
       <c r="C1723" t="str">
-        <v>/nuclear/pencyl</v>
+        <v>/nuclear/plasma-calorimeter</v>
       </c>
       <c r="D1723" t="str">
         <v>Basic Page</v>
@@ -24538,7 +24538,7 @@
         <v>Nuclear Physics</v>
       </c>
       <c r="C1724" t="str">
-        <v>/nuclear/ddgamma4he</v>
+        <v>/nuclear/c12n2n-c11-info</v>
       </c>
       <c r="D1724" t="str">
         <v>Basic Page</v>
@@ -24552,7 +24552,7 @@
         <v>Nuclear Physics</v>
       </c>
       <c r="C1725" t="str">
-        <v>/nuclear/carbon-activation-data-1999</v>
+        <v>/nuclear/1578-volts-gain-match-check-using-pube-source</v>
       </c>
       <c r="D1725" t="str">
         <v>Basic Page</v>
@@ -24566,7 +24566,7 @@
         <v>Nuclear Physics</v>
       </c>
       <c r="C1726" t="str">
-        <v>/nuclear/1999-run-11</v>
+        <v>/nuclear/1999-run-9</v>
       </c>
       <c r="D1726" t="str">
         <v>Basic Page</v>
@@ -24580,7 +24580,7 @@
         <v>Nuclear Physics</v>
       </c>
       <c r="C1727" t="str">
-        <v>/nuclear/carbon-data-2004</v>
+        <v>/nuclear/ca-2001-shot-data-collected</v>
       </c>
       <c r="D1727" t="str">
         <v>Basic Page</v>
@@ -24594,7 +24594,7 @@
         <v>Nuclear Physics</v>
       </c>
       <c r="C1728" t="str">
-        <v>/nuclear/sem-imaging-process</v>
+        <v>/nuclear/early-stages-etching</v>
       </c>
       <c r="D1728" t="str">
         <v>Basic Page</v>
@@ -24608,7 +24608,7 @@
         <v>Nuclear Physics</v>
       </c>
       <c r="C1729" t="str">
-        <v>/nuclear/extending-trim-3d</v>
+        <v>/nuclear/penelope</v>
       </c>
       <c r="D1729" t="str">
         <v>Basic Page</v>
@@ -24622,7 +24622,7 @@
         <v>Nuclear Physics</v>
       </c>
       <c r="C1730" t="str">
-        <v>/nuclear/trim-3d-3d-particle-visualization-program</v>
+        <v>/nuclear/cr-39</v>
       </c>
       <c r="D1730" t="str">
         <v>Basic Page</v>
@@ -24636,7 +24636,7 @@
         <v>Nuclear Physics</v>
       </c>
       <c r="C1731" t="str">
-        <v>/nuclear/aluminum-activation</v>
+        <v>/nuclear/c12gamman-c11</v>
       </c>
       <c r="D1731" t="str">
         <v>Basic Page</v>
@@ -24650,7 +24650,7 @@
         <v>Nuclear Physics</v>
       </c>
       <c r="C1732" t="str">
-        <v>/nuclear/carbon-activation-data-2000</v>
+        <v>/nuclear/carbon-activation-data-collected</v>
       </c>
       <c r="D1732" t="str">
         <v>Basic Page</v>
@@ -24664,7 +24664,7 @@
         <v>Nuclear Physics</v>
       </c>
       <c r="C1733" t="str">
-        <v>/nuclear/1999-run-12</v>
+        <v>/nuclear/1999-run-10</v>
       </c>
       <c r="D1733" t="str">
         <v>Basic Page</v>
@@ -25028,7 +25028,7 @@
         <v>Physics &amp; Astronomy</v>
       </c>
       <c r="C1759" t="str">
-        <v>/physics/engineering-research</v>
+        <v>/physics/history</v>
       </c>
       <c r="D1759" t="str">
         <v>Basic Page</v>
@@ -25042,7 +25042,7 @@
         <v>Physics &amp; Astronomy</v>
       </c>
       <c r="C1760" t="str">
-        <v>/physics/optics</v>
+        <v>/physics/theory</v>
       </c>
       <c r="D1760" t="str">
         <v>Basic Page</v>
@@ -25056,7 +25056,7 @@
         <v>Physics &amp; Astronomy</v>
       </c>
       <c r="C1761" t="str">
-        <v>/physics/solidstate</v>
+        <v>/physics/engineering-research</v>
       </c>
       <c r="D1761" t="str">
         <v>Basic Page</v>
@@ -25070,7 +25070,7 @@
         <v>Physics &amp; Astronomy</v>
       </c>
       <c r="C1762" t="str">
-        <v>/physics/physics-education-research</v>
+        <v>/physics/optics</v>
       </c>
       <c r="D1762" t="str">
         <v>Basic Page</v>
@@ -25084,7 +25084,7 @@
         <v>Physics &amp; Astronomy</v>
       </c>
       <c r="C1763" t="str">
-        <v>/physics/research</v>
+        <v>/physics/solidstate</v>
       </c>
       <c r="D1763" t="str">
         <v>Basic Page</v>
@@ -25098,7 +25098,7 @@
         <v>Physics &amp; Astronomy</v>
       </c>
       <c r="C1764" t="str">
-        <v>/physics/history</v>
+        <v>/physics/physics-education-research</v>
       </c>
       <c r="D1764" t="str">
         <v>Basic Page</v>
@@ -25112,7 +25112,7 @@
         <v>Physics &amp; Astronomy</v>
       </c>
       <c r="C1765" t="str">
-        <v>/physics/theory</v>
+        <v>/physics/research</v>
       </c>
       <c r="D1765" t="str">
         <v>Basic Page</v>
@@ -25126,7 +25126,7 @@
         <v>Physics &amp; Astronomy</v>
       </c>
       <c r="C1766" t="str">
-        <v>/physics/info-for-prospective-students</v>
+        <v>/physics/physics-colloquium-series</v>
       </c>
       <c r="D1766" t="str">
         <v>Basic Page</v>
@@ -25140,7 +25140,7 @@
         <v>Physics &amp; Astronomy</v>
       </c>
       <c r="C1767" t="str">
-        <v>/physics/physics-alumni-spotlight</v>
+        <v>/physics/info-for-prospective-students</v>
       </c>
       <c r="D1767" t="str">
         <v>Basic Page</v>
@@ -25154,7 +25154,7 @@
         <v>Physics &amp; Astronomy</v>
       </c>
       <c r="C1768" t="str">
-        <v>/physics/demarco</v>
+        <v>/physics/physics-alumni-spotlight</v>
       </c>
       <c r="D1768" t="str">
         <v>Basic Page</v>
@@ -25168,7 +25168,7 @@
         <v>Physics &amp; Astronomy</v>
       </c>
       <c r="C1769" t="str">
-        <v>/physics/youbelong</v>
+        <v>/physics/demarco</v>
       </c>
       <c r="D1769" t="str">
         <v>Basic Page</v>
@@ -25182,7 +25182,7 @@
         <v>Physics &amp; Astronomy</v>
       </c>
       <c r="C1770" t="str">
-        <v>/physics/physics-colloquium-series</v>
+        <v>/physics/youbelong</v>
       </c>
       <c r="D1770" t="str">
         <v>Basic Page</v>
@@ -25196,7 +25196,7 @@
         <v>Physics &amp; Astronomy</v>
       </c>
       <c r="C1771" t="str">
-        <v>/physics/registration-information-physics-students</v>
+        <v>/physics/alumni_database</v>
       </c>
       <c r="D1771" t="str">
         <v>Basic Page</v>
@@ -25210,7 +25210,7 @@
         <v>Physics &amp; Astronomy</v>
       </c>
       <c r="C1772" t="str">
-        <v>/physics/sells-lecture</v>
+        <v>/physics/webform/radiation-safety-training</v>
       </c>
       <c r="D1772" t="str">
         <v>Basic Page</v>
@@ -25224,7 +25224,7 @@
         <v>Physics &amp; Astronomy</v>
       </c>
       <c r="C1773" t="str">
-        <v>/physics/alumniform</v>
+        <v>/physics/alumni</v>
       </c>
       <c r="D1773" t="str">
         <v>Basic Page</v>
@@ -25238,7 +25238,7 @@
         <v>Physics &amp; Astronomy</v>
       </c>
       <c r="C1774" t="str">
-        <v>/physics/alumni_database</v>
+        <v>/physics/colloquium-201009</v>
       </c>
       <c r="D1774" t="str">
         <v>Basic Page</v>
@@ -25252,7 +25252,7 @@
         <v>Physics &amp; Astronomy</v>
       </c>
       <c r="C1775" t="str">
-        <v>/physics/webform/radiation-safety-training</v>
+        <v>/physics/area-5</v>
       </c>
       <c r="D1775" t="str">
         <v>Basic Page</v>
@@ -25266,7 +25266,7 @@
         <v>Physics &amp; Astronomy</v>
       </c>
       <c r="C1776" t="str">
-        <v>/physics/alumni</v>
+        <v>/physics/registration-information-physics-students</v>
       </c>
       <c r="D1776" t="str">
         <v>Basic Page</v>
@@ -25280,7 +25280,7 @@
         <v>Physics &amp; Astronomy</v>
       </c>
       <c r="C1777" t="str">
-        <v>/physics/colloquium-201009</v>
+        <v>/physics/sells-lecture</v>
       </c>
       <c r="D1777" t="str">
         <v>Basic Page</v>
@@ -25294,7 +25294,7 @@
         <v>Physics &amp; Astronomy</v>
       </c>
       <c r="C1778" t="str">
-        <v>/physics/area-5</v>
+        <v>/physics/alumniform</v>
       </c>
       <c r="D1778" t="str">
         <v>Basic Page</v>
@@ -26666,7 +26666,7 @@
         <v>LGBTQ</v>
       </c>
       <c r="C1876" t="str">
-        <v>/lgbtq/safezone-network-students-alphabetical</v>
+        <v>/lgbtq/safezone-zone-yellow</v>
       </c>
       <c r="D1876" t="str">
         <v>Basic Page</v>
@@ -26680,7 +26680,7 @@
         <v>LGBTQ</v>
       </c>
       <c r="C1877" t="str">
-        <v>/lgbtq/safezone-network-campus-map</v>
+        <v>/lgbtq/safe-zone-facilitators</v>
       </c>
       <c r="D1877" t="str">
         <v>Basic Page</v>
@@ -26694,7 +26694,7 @@
         <v>LGBTQ</v>
       </c>
       <c r="C1878" t="str">
-        <v>/lgbtq/safezone-zone-yellow</v>
+        <v>/lgbtq/safezone-network-students-alphabetical</v>
       </c>
       <c r="D1878" t="str">
         <v>Basic Page</v>
@@ -26708,7 +26708,7 @@
         <v>LGBTQ</v>
       </c>
       <c r="C1879" t="str">
-        <v>/lgbtq/safe-zone-facilitators</v>
+        <v>/lgbtq/safezone-network-campus-map</v>
       </c>
       <c r="D1879" t="str">
         <v>Basic Page</v>
@@ -27296,7 +27296,7 @@
         <v>Reunion</v>
       </c>
       <c r="C1921" t="str">
-        <v>/reunion/reunion-learningandfitness</v>
+        <v>/reunion/50-year-club-events</v>
       </c>
       <c r="D1921" t="str">
         <v>Basic Page</v>
@@ -27310,7 +27310,7 @@
         <v>Reunion</v>
       </c>
       <c r="C1922" t="str">
-        <v>/reunion/reunion-menus</v>
+        <v>/reunion/reunion-learningandfitness</v>
       </c>
       <c r="D1922" t="str">
         <v>Basic Page</v>
@@ -27324,7 +27324,7 @@
         <v>Reunion</v>
       </c>
       <c r="C1923" t="str">
-        <v>/reunion/reunion-giving</v>
+        <v>/reunion/reunion-menus</v>
       </c>
       <c r="D1923" t="str">
         <v>Basic Page</v>
@@ -27338,7 +27338,7 @@
         <v>Reunion</v>
       </c>
       <c r="C1924" t="str">
-        <v>/reunion/alumni-colleges</v>
+        <v>/reunion/reunion-giving</v>
       </c>
       <c r="D1924" t="str">
         <v>Basic Page</v>
@@ -27352,7 +27352,7 @@
         <v>Reunion</v>
       </c>
       <c r="C1925" t="str">
-        <v>/reunion/50-year-club-events</v>
+        <v>/reunion/alumni-colleges</v>
       </c>
       <c r="D1925" t="str">
         <v>Basic Page</v>
@@ -30502,7 +30502,7 @@
         <v>The National Honor Society in Psychology</v>
       </c>
       <c r="C2150" t="str">
-        <v>/psi_chi/contact</v>
+        <v>/psi_chi/psychologyday</v>
       </c>
       <c r="D2150" t="str">
         <v>Basic Page</v>
@@ -30516,7 +30516,7 @@
         <v>The National Honor Society in Psychology</v>
       </c>
       <c r="C2151" t="str">
-        <v>/psi_chi/zook</v>
+        <v>/psi_chi/contact</v>
       </c>
       <c r="D2151" t="str">
         <v>Basic Page</v>
@@ -30530,7 +30530,7 @@
         <v>The National Honor Society in Psychology</v>
       </c>
       <c r="C2152" t="str">
-        <v>/psi_chi/mission</v>
+        <v>/psi_chi/zook</v>
       </c>
       <c r="D2152" t="str">
         <v>Basic Page</v>
@@ -30544,7 +30544,7 @@
         <v>The National Honor Society in Psychology</v>
       </c>
       <c r="C2153" t="str">
-        <v>/psi_chi/about_psi_chi</v>
+        <v>/psi_chi/mission</v>
       </c>
       <c r="D2153" t="str">
         <v>Basic Page</v>
@@ -30558,7 +30558,7 @@
         <v>The National Honor Society in Psychology</v>
       </c>
       <c r="C2154" t="str">
-        <v>/psi_chi/photos</v>
+        <v>/psi_chi/about_psi_chi</v>
       </c>
       <c r="D2154" t="str">
         <v>Basic Page</v>
@@ -30572,7 +30572,7 @@
         <v>The National Honor Society in Psychology</v>
       </c>
       <c r="C2155" t="str">
-        <v>/psi_chi/raynor</v>
+        <v>/psi_chi/photos</v>
       </c>
       <c r="D2155" t="str">
         <v>Basic Page</v>
@@ -30586,7 +30586,7 @@
         <v>The National Honor Society in Psychology</v>
       </c>
       <c r="C2156" t="str">
-        <v>/psi_chi/psychologyday</v>
+        <v>/psi_chi/raynor</v>
       </c>
       <c r="D2156" t="str">
         <v>Basic Page</v>
@@ -31202,7 +31202,7 @@
         <v>Political Science</v>
       </c>
       <c r="C2200" t="str">
-        <v>/political_science/faculty-staff/former</v>
+        <v>/political_science/scholarships</v>
       </c>
       <c r="D2200" t="str">
         <v>Basic Page</v>
@@ -31216,7 +31216,7 @@
         <v>Political Science</v>
       </c>
       <c r="C2201" t="str">
-        <v>/political_science/scholarships</v>
+        <v>/political_science/faculty-staff/former</v>
       </c>
       <c r="D2201" t="str">
         <v>Basic Page</v>
@@ -31874,7 +31874,7 @@
         <v>Philosophy</v>
       </c>
       <c r="C2248" t="str">
-        <v>/philosophy/alumni-profiles/grant-lawson</v>
+        <v>/philosophy/alumni-profiles/steve-guglielmo</v>
       </c>
       <c r="D2248" t="str">
         <v>Alumni Profile</v>
@@ -31888,7 +31888,7 @@
         <v>Philosophy</v>
       </c>
       <c r="C2249" t="str">
-        <v>/philosophy/alumni-profiles/jeff-handy</v>
+        <v>/philosophy/alumni-profiles/john-petrella</v>
       </c>
       <c r="D2249" t="str">
         <v>Alumni Profile</v>
@@ -31902,7 +31902,7 @@
         <v>Philosophy</v>
       </c>
       <c r="C2250" t="str">
-        <v>/philosophy/alumni-profiles/laura-lightfoote</v>
+        <v>/philosophy/alumni-profiles/michelle-english</v>
       </c>
       <c r="D2250" t="str">
         <v>Alumni Profile</v>
@@ -31916,10 +31916,10 @@
         <v>Philosophy</v>
       </c>
       <c r="C2251" t="str">
-        <v>/philosophy/alumni-profiles/anna-mcdermott</v>
+        <v>/philosophy/faculty-office-hours-contact-info-spring-2021</v>
       </c>
       <c r="D2251" t="str">
-        <v>Alumni Profile</v>
+        <v>Basic Page</v>
       </c>
     </row>
     <row r="2252">
@@ -31930,7 +31930,7 @@
         <v>Philosophy</v>
       </c>
       <c r="C2252" t="str">
-        <v>/philosophy/alumni-profiles/amanda-sleaver</v>
+        <v>/philosophy/alumni-profiles/rob-garafola</v>
       </c>
       <c r="D2252" t="str">
         <v>Alumni Profile</v>
@@ -31944,7 +31944,7 @@
         <v>Philosophy</v>
       </c>
       <c r="C2253" t="str">
-        <v>/philosophy/alumni-profiles/alyssa-yates</v>
+        <v>/philosophy/alumni-profiles/eileen-daly-boas</v>
       </c>
       <c r="D2253" t="str">
         <v>Alumni Profile</v>
@@ -31958,7 +31958,7 @@
         <v>Philosophy</v>
       </c>
       <c r="C2254" t="str">
-        <v>/philosophy/alumni-profiles/marianne-erhardt</v>
+        <v>/philosophy/alumni-profiles/drew-kenyon</v>
       </c>
       <c r="D2254" t="str">
         <v>Alumni Profile</v>
@@ -31972,7 +31972,7 @@
         <v>Philosophy</v>
       </c>
       <c r="C2255" t="str">
-        <v>/philosophy/alumni-profiles/shannon-dempsey</v>
+        <v>/philosophy/alumni-profiles/aaron-proietti</v>
       </c>
       <c r="D2255" t="str">
         <v>Alumni Profile</v>
@@ -31986,7 +31986,7 @@
         <v>Philosophy</v>
       </c>
       <c r="C2256" t="str">
-        <v>/philosophy/alumni-profiles/brian-bosch</v>
+        <v>/philosophy/alumni-profiles/leigh-duffy</v>
       </c>
       <c r="D2256" t="str">
         <v>Alumni Profile</v>
@@ -32000,7 +32000,7 @@
         <v>Philosophy</v>
       </c>
       <c r="C2257" t="str">
-        <v>/philosophy/alumni-profiles/bari-zeiger</v>
+        <v>/philosophy/alumni-profiles/andrew-smith</v>
       </c>
       <c r="D2257" t="str">
         <v>Alumni Profile</v>
@@ -32014,7 +32014,7 @@
         <v>Philosophy</v>
       </c>
       <c r="C2258" t="str">
-        <v>/philosophy/alumni-profiles/bob-fischer</v>
+        <v>/philosophy/alumni-profiles/veronica-mcgrath</v>
       </c>
       <c r="D2258" t="str">
         <v>Alumni Profile</v>
@@ -32028,7 +32028,7 @@
         <v>Philosophy</v>
       </c>
       <c r="C2259" t="str">
-        <v>/philosophy/alumni-profiles/deneisa-wharton</v>
+        <v>/philosophy/alumni-profiles/robert-mayville</v>
       </c>
       <c r="D2259" t="str">
         <v>Alumni Profile</v>
@@ -32042,7 +32042,7 @@
         <v>Philosophy</v>
       </c>
       <c r="C2260" t="str">
-        <v>/philosophy/alumni-profiles/james-fisher</v>
+        <v>/philosophy/alumni-profiles/grant-lawson</v>
       </c>
       <c r="D2260" t="str">
         <v>Alumni Profile</v>
@@ -32056,7 +32056,7 @@
         <v>Philosophy</v>
       </c>
       <c r="C2261" t="str">
-        <v>/philosophy/alumni-profiles/nick-simons</v>
+        <v>/philosophy/alumni-profiles/jeff-handy</v>
       </c>
       <c r="D2261" t="str">
         <v>Alumni Profile</v>
@@ -32070,10 +32070,10 @@
         <v>Philosophy</v>
       </c>
       <c r="C2262" t="str">
-        <v>/philosophy/alumni-profiles-1</v>
+        <v>/philosophy/alumni-profiles/laura-lightfoote</v>
       </c>
       <c r="D2262" t="str">
-        <v>Basic Page</v>
+        <v>Alumni Profile</v>
       </c>
     </row>
     <row r="2263">
@@ -32084,7 +32084,7 @@
         <v>Philosophy</v>
       </c>
       <c r="C2263" t="str">
-        <v>/philosophy/alumni-profiles/ben-greene</v>
+        <v>/philosophy/alumni-profiles/anna-mcdermott</v>
       </c>
       <c r="D2263" t="str">
         <v>Alumni Profile</v>
@@ -34030,7 +34030,7 @@
         <v>Anthropology</v>
       </c>
       <c r="C2402" t="str">
-        <v>/anthropology/anthropology-information-exploring-students</v>
+        <v>/anthropology/careers-anthropology</v>
       </c>
       <c r="D2402" t="str">
         <v>Basic Page</v>
@@ -34044,7 +34044,7 @@
         <v>Anthropology</v>
       </c>
       <c r="C2403" t="str">
-        <v>/anthropology/careers-anthropology</v>
+        <v>/anthropology/anthropology-information-exploring-students</v>
       </c>
       <c r="D2403" t="str">
         <v>Basic Page</v>
@@ -34968,7 +34968,7 @@
         <v>Career Design Center</v>
       </c>
       <c r="C2469" t="str">
-        <v>/career-design/ai-tool-kit</v>
+        <v>/career-design/job-scams</v>
       </c>
       <c r="D2469" t="str">
         <v>Basic Page</v>
@@ -34982,7 +34982,7 @@
         <v>Career Design Center</v>
       </c>
       <c r="C2470" t="str">
-        <v>/career-design/identity-work-resources-students-color</v>
+        <v>/career-design/ai-tool-kit</v>
       </c>
       <c r="D2470" t="str">
         <v>Basic Page</v>
@@ -34996,7 +34996,7 @@
         <v>Career Design Center</v>
       </c>
       <c r="C2471" t="str">
-        <v>/career-design/job-scams</v>
+        <v>/career-design/identity-work-resources-students-color</v>
       </c>
       <c r="D2471" t="str">
         <v>Basic Page</v>
@@ -35640,7 +35640,7 @@
         <v>Latin American and Caribbean Studies</v>
       </c>
       <c r="C2517" t="str">
-        <v>/latin_american_caribbean_studies/student-organizations</v>
+        <v>/latin_american_caribbean_studies/study-abroad-opportunities</v>
       </c>
       <c r="D2517" t="str">
         <v>Basic Page</v>
@@ -35654,7 +35654,7 @@
         <v>Latin American and Caribbean Studies</v>
       </c>
       <c r="C2518" t="str">
-        <v>/latin_american_caribbean_studies/study-abroad-opportunities</v>
+        <v>/latin_american_caribbean_studies/student-organizations</v>
       </c>
       <c r="D2518" t="str">
         <v>Basic Page</v>
@@ -35864,7 +35864,7 @@
         <v>Sociomedical Sciences</v>
       </c>
       <c r="C2533" t="str">
-        <v>/sociomedical_sciences/academic-program-0</v>
+        <v>/sociomedical_sciences/congratulations-class-2021</v>
       </c>
       <c r="D2533" t="str">
         <v>Basic Page</v>
@@ -35878,7 +35878,7 @@
         <v>Sociomedical Sciences</v>
       </c>
       <c r="C2534" t="str">
-        <v>/sociomedical_sciences/congratulations-class-2021</v>
+        <v>/sociomedical_sciences/sociomedical-sciences-major-selected-be-presidential-scholar</v>
       </c>
       <c r="D2534" t="str">
         <v>Basic Page</v>
@@ -35892,7 +35892,7 @@
         <v>Sociomedical Sciences</v>
       </c>
       <c r="C2535" t="str">
-        <v>/sociomedical_sciences/sociomedical-sciences-major-selected-be-presidential-scholar</v>
+        <v>/sociomedical_sciences/department-anthropologys-2022-awards-sociomedical-sciences</v>
       </c>
       <c r="D2535" t="str">
         <v>Basic Page</v>
@@ -35906,7 +35906,7 @@
         <v>Sociomedical Sciences</v>
       </c>
       <c r="C2536" t="str">
-        <v>/sociomedical_sciences/department-anthropologys-2022-awards-sociomedical-sciences</v>
+        <v>/sociomedical_sciences/academic-program-0</v>
       </c>
       <c r="D2536" t="str">
         <v>Basic Page</v>
@@ -36256,7 +36256,7 @@
         <v>Facilities Services</v>
       </c>
       <c r="C2561" t="str">
-        <v>/facilities_services/campus-utilities</v>
+        <v>/facilities_services/customer_service_center</v>
       </c>
       <c r="D2561" t="str">
         <v>Basic Page</v>
@@ -36270,7 +36270,7 @@
         <v>Facilities Services</v>
       </c>
       <c r="C2562" t="str">
-        <v>/facilities_services/customer_service_center</v>
+        <v>/facilities_services/facstaff_utilities</v>
       </c>
       <c r="D2562" t="str">
         <v>Basic Page</v>
@@ -36284,7 +36284,7 @@
         <v>Facilities Services</v>
       </c>
       <c r="C2563" t="str">
-        <v>/facilities_services/facstaff_utilities</v>
+        <v>/facilities_services/zone-maintenance</v>
       </c>
       <c r="D2563" t="str">
         <v>Basic Page</v>
@@ -36298,7 +36298,7 @@
         <v>Facilities Services</v>
       </c>
       <c r="C2564" t="str">
-        <v>/facilities_services/zone-maintenance</v>
+        <v>/facilities_services/campus-utilities</v>
       </c>
       <c r="D2564" t="str">
         <v>Basic Page</v>
@@ -37544,7 +37544,7 @@
         <v>Chemistry Stockroom</v>
       </c>
       <c r="C2653" t="str">
-        <v>/chemstockroom/redesign-visit-us</v>
+        <v>/chemstockroom/lab-safety-summary</v>
       </c>
       <c r="D2653" t="str">
         <v>Basic Page</v>
@@ -37558,7 +37558,7 @@
         <v>Chemistry Stockroom</v>
       </c>
       <c r="C2654" t="str">
-        <v>/chemstockroom/lab-safety-summary</v>
+        <v>/chemstockroom/redesign-visit-us</v>
       </c>
       <c r="D2654" t="str">
         <v>Basic Page</v>
@@ -37572,7 +37572,7 @@
         <v>Chemistry Stockroom</v>
       </c>
       <c r="C2655" t="str">
-        <v>/chemstockroom/nanomaterial-part-3</v>
+        <v>/chemstockroom/electrophillic-addition-alkene-week-4</v>
       </c>
       <c r="D2655" t="str">
         <v>Basic Page</v>
@@ -37586,7 +37586,7 @@
         <v>Chemistry Stockroom</v>
       </c>
       <c r="C2656" t="str">
-        <v>/chemstockroom/lactate-dehydrogenase-week-2</v>
+        <v>/chemstockroom/nanomaterial-part-2</v>
       </c>
       <c r="D2656" t="str">
         <v>Basic Page</v>
@@ -37600,7 +37600,7 @@
         <v>Chemistry Stockroom</v>
       </c>
       <c r="C2657" t="str">
-        <v>/chemstockroom/lactate-dehydrogenase-week-3</v>
+        <v>/chemstockroom/nanomaterial-part-3</v>
       </c>
       <c r="D2657" t="str">
         <v>Basic Page</v>
@@ -37614,7 +37614,7 @@
         <v>Chemistry Stockroom</v>
       </c>
       <c r="C2658" t="str">
-        <v>/chemstockroom/construction-page-lab-safety-introduction</v>
+        <v>/chemstockroom/lactate-dehydrogenase-week-2</v>
       </c>
       <c r="D2658" t="str">
         <v>Basic Page</v>
@@ -37628,7 +37628,7 @@
         <v>Chemistry Stockroom</v>
       </c>
       <c r="C2659" t="str">
-        <v>/chemstockroom/determination-ecoli-dna-concentration-and-purity</v>
+        <v>/chemstockroom/lactate-dehydrogenase-week-3</v>
       </c>
       <c r="D2659" t="str">
         <v>Basic Page</v>
@@ -37642,7 +37642,7 @@
         <v>Chemistry Stockroom</v>
       </c>
       <c r="C2660" t="str">
-        <v>/chemstockroom/chem-105-sds-forms</v>
+        <v>/chemstockroom/construction-page-lab-safety-introduction</v>
       </c>
       <c r="D2660" t="str">
         <v>Basic Page</v>
@@ -37656,7 +37656,7 @@
         <v>Chemistry Stockroom</v>
       </c>
       <c r="C2661" t="str">
-        <v>/chemstockroom/electrophillic-addition-alkene-week-4</v>
+        <v>/chemstockroom/determination-ecoli-dna-concentration-and-purity</v>
       </c>
       <c r="D2661" t="str">
         <v>Basic Page</v>
@@ -37670,7 +37670,7 @@
         <v>Chemistry Stockroom</v>
       </c>
       <c r="C2662" t="str">
-        <v>/chemstockroom/nanomaterial-part-2</v>
+        <v>/chemstockroom/chem-105-sds-forms</v>
       </c>
       <c r="D2662" t="str">
         <v>Basic Page</v>
@@ -37684,7 +37684,7 @@
         <v>Chemistry Stockroom</v>
       </c>
       <c r="C2663" t="str">
-        <v>/chemstockroom/bradford-method-and-nadh</v>
+        <v>/chemstockroom/mofs-part-4</v>
       </c>
       <c r="D2663" t="str">
         <v>Basic Page</v>
@@ -37698,7 +37698,7 @@
         <v>Chemistry Stockroom</v>
       </c>
       <c r="C2664" t="str">
-        <v>/chemstockroom/chem-119-density-lab-0</v>
+        <v>/chemstockroom/metalware</v>
       </c>
       <c r="D2664" t="str">
         <v>Basic Page</v>
@@ -38398,7 +38398,7 @@
         <v>Department of Chemistry and Biochemistry</v>
       </c>
       <c r="C2714" t="str">
-        <v>/chemistry/award-winning-chemistry-faculty</v>
+        <v>/chemistry/geneseo-chemistry-and-employment</v>
       </c>
       <c r="D2714" t="str">
         <v>Basic Page</v>
@@ -39266,7 +39266,7 @@
         <v>Sustainability</v>
       </c>
       <c r="C2776" t="str">
-        <v>/sustainability/tiny-house</v>
+        <v>/sustainability/videos</v>
       </c>
       <c r="D2776" t="str">
         <v>Basic Page</v>
@@ -39280,7 +39280,7 @@
         <v>Sustainability</v>
       </c>
       <c r="C2777" t="str">
-        <v>/sustainability/videos</v>
+        <v>/sustainability/commission-charges-and-goals</v>
       </c>
       <c r="D2777" t="str">
         <v>Basic Page</v>
@@ -39294,7 +39294,7 @@
         <v>Sustainability</v>
       </c>
       <c r="C2778" t="str">
-        <v>/sustainability/commission-charges-and-goals</v>
+        <v>/sustainability/tiny-house</v>
       </c>
       <c r="D2778" t="str">
         <v>Basic Page</v>
@@ -40596,7 +40596,7 @@
         <v>Financial Aid</v>
       </c>
       <c r="C2871" t="str">
-        <v>/financial_aid/learn-more</v>
+        <v>/financial_aid/use_of_fafsa</v>
       </c>
       <c r="D2871" t="str">
         <v>Basic Page</v>
@@ -40610,7 +40610,7 @@
         <v>Financial Aid</v>
       </c>
       <c r="C2872" t="str">
-        <v>/financial_aid/scholarships_outside</v>
+        <v>/financial_aid/student-loan-terms</v>
       </c>
       <c r="D2872" t="str">
         <v>Basic Page</v>
@@ -40624,7 +40624,7 @@
         <v>Financial Aid</v>
       </c>
       <c r="C2873" t="str">
-        <v>/financial_aid/webform/anticipated-enrollment-questionaire</v>
+        <v>/financial_aid/learn-more</v>
       </c>
       <c r="D2873" t="str">
         <v>Basic Page</v>
@@ -40638,7 +40638,7 @@
         <v>Financial Aid</v>
       </c>
       <c r="C2874" t="str">
-        <v>/financialaid/webform/supervisor-survey-college-work-study-process</v>
+        <v>/financial_aid/scholarships_outside</v>
       </c>
       <c r="D2874" t="str">
         <v>Basic Page</v>
@@ -40652,7 +40652,7 @@
         <v>Financial Aid</v>
       </c>
       <c r="C2875" t="str">
-        <v>/financialaid/webform/exit-counseling-session-registration</v>
+        <v>/financial_aid/webform/anticipated-enrollment-questionaire</v>
       </c>
       <c r="D2875" t="str">
         <v>Basic Page</v>
@@ -40666,7 +40666,7 @@
         <v>Financial Aid</v>
       </c>
       <c r="C2876" t="str">
-        <v>/financial_aid/net_price_cal</v>
+        <v>/financialaid/webform/supervisor-survey-college-work-study-process</v>
       </c>
       <c r="D2876" t="str">
         <v>Basic Page</v>
@@ -40680,7 +40680,7 @@
         <v>Financial Aid</v>
       </c>
       <c r="C2877" t="str">
-        <v>/financial_aid/after_you_submit_the_fafsa</v>
+        <v>/financialaid/webform/exit-counseling-session-registration</v>
       </c>
       <c r="D2877" t="str">
         <v>Basic Page</v>
@@ -40694,7 +40694,7 @@
         <v>Financial Aid</v>
       </c>
       <c r="C2878" t="str">
-        <v>/financial_aid/links</v>
+        <v>/financial_aid/net_price_cal</v>
       </c>
       <c r="D2878" t="str">
         <v>Basic Page</v>
@@ -40708,7 +40708,7 @@
         <v>Financial Aid</v>
       </c>
       <c r="C2879" t="str">
-        <v>/financial_aid/use_of_fafsa</v>
+        <v>/financial_aid/after_you_submit_the_fafsa</v>
       </c>
       <c r="D2879" t="str">
         <v>Basic Page</v>
@@ -40722,7 +40722,7 @@
         <v>Financial Aid</v>
       </c>
       <c r="C2880" t="str">
-        <v>/financial_aid/student-loan-terms</v>
+        <v>/financial_aid/links</v>
       </c>
       <c r="D2880" t="str">
         <v>Basic Page</v>
@@ -41646,7 +41646,7 @@
         <v>GOLD Program</v>
       </c>
       <c r="C2946" t="str">
-        <v>/gold/past-leadership-certificate-recipients</v>
+        <v>/gold/ward-leadership-scholarship</v>
       </c>
       <c r="D2946" t="str">
         <v>Basic Page</v>
@@ -41660,7 +41660,7 @@
         <v>GOLD Program</v>
       </c>
       <c r="C2947" t="str">
-        <v>/gold/honors-and-recognition</v>
+        <v>/gold/past-leadership-certificate-recipients</v>
       </c>
       <c r="D2947" t="str">
         <v>Basic Page</v>
@@ -41674,7 +41674,7 @@
         <v>GOLD Program</v>
       </c>
       <c r="C2948" t="str">
-        <v>/gold/faq</v>
+        <v>/gold/honors-and-recognition</v>
       </c>
       <c r="D2948" t="str">
         <v>Basic Page</v>
@@ -41688,7 +41688,7 @@
         <v>GOLD Program</v>
       </c>
       <c r="C2949" t="str">
-        <v>/gold/journals-and-reflections</v>
+        <v>/gold/faq</v>
       </c>
       <c r="D2949" t="str">
         <v>Basic Page</v>
@@ -41702,7 +41702,7 @@
         <v>GOLD Program</v>
       </c>
       <c r="C2950" t="str">
-        <v>/gold/leadership-opportunities-geneseo</v>
+        <v>/gold/journals-and-reflections</v>
       </c>
       <c r="D2950" t="str">
         <v>Basic Page</v>
@@ -41716,7 +41716,7 @@
         <v>GOLD Program</v>
       </c>
       <c r="C2951" t="str">
-        <v>/gold/ward-leadership-scholarship</v>
+        <v>/gold/leadership-opportunities-geneseo</v>
       </c>
       <c r="D2951" t="str">
         <v>Basic Page</v>
@@ -41940,7 +41940,7 @@
         <v>Dean of Students</v>
       </c>
       <c r="C2967" t="str">
-        <v>/dean_students/freedom-speech</v>
+        <v>/dean_students/voting-resources</v>
       </c>
       <c r="D2967" t="str">
         <v>Basic Page</v>
@@ -41954,7 +41954,7 @@
         <v>Dean of Students</v>
       </c>
       <c r="C2968" t="str">
-        <v>/dean_students/voting-resources</v>
+        <v>/dean_students/freedom-speech</v>
       </c>
       <c r="D2968" t="str">
         <v>Basic Page</v>
@@ -42752,7 +42752,7 @@
         <v>Student Handbook</v>
       </c>
       <c r="C3025" t="str">
-        <v>/handbook/u</v>
+        <v>/handbook/appendix_e</v>
       </c>
       <c r="D3025" t="str">
         <v>Basic Page</v>
@@ -42766,7 +42766,7 @@
         <v>Student Handbook</v>
       </c>
       <c r="C3026" t="str">
-        <v>/handbook/handbook_appendix_c</v>
+        <v>/handbook/appendices</v>
       </c>
       <c r="D3026" t="str">
         <v>Basic Page</v>
@@ -42780,7 +42780,7 @@
         <v>Student Handbook</v>
       </c>
       <c r="C3027" t="str">
-        <v>/handbook/j</v>
+        <v>/handbook/handbook_appendix_f</v>
       </c>
       <c r="D3027" t="str">
         <v>Basic Page</v>
@@ -42794,7 +42794,7 @@
         <v>Student Handbook</v>
       </c>
       <c r="C3028" t="str">
-        <v>/handbook/h</v>
+        <v>/handbook/b</v>
       </c>
       <c r="D3028" t="str">
         <v>Basic Page</v>
@@ -42808,7 +42808,7 @@
         <v>Student Handbook</v>
       </c>
       <c r="C3029" t="str">
-        <v>/handbook/handbook_appendix_g</v>
+        <v>/handbook/u</v>
       </c>
       <c r="D3029" t="str">
         <v>Basic Page</v>
@@ -42822,7 +42822,7 @@
         <v>Student Handbook</v>
       </c>
       <c r="C3030" t="str">
-        <v>/handbook/s</v>
+        <v>/handbook/handbook_appendix_c</v>
       </c>
       <c r="D3030" t="str">
         <v>Basic Page</v>
@@ -42836,7 +42836,7 @@
         <v>Student Handbook</v>
       </c>
       <c r="C3031" t="str">
-        <v>/handbook/handbook_appendix_a</v>
+        <v>/handbook/j</v>
       </c>
       <c r="D3031" t="str">
         <v>Basic Page</v>
@@ -42850,7 +42850,7 @@
         <v>Student Handbook</v>
       </c>
       <c r="C3032" t="str">
-        <v>/handbook/appendix_e</v>
+        <v>/handbook/h</v>
       </c>
       <c r="D3032" t="str">
         <v>Basic Page</v>
@@ -42864,7 +42864,7 @@
         <v>Student Handbook</v>
       </c>
       <c r="C3033" t="str">
-        <v>/handbook/appendices</v>
+        <v>/handbook/handbook_appendix_g</v>
       </c>
       <c r="D3033" t="str">
         <v>Basic Page</v>
@@ -42878,7 +42878,7 @@
         <v>Student Handbook</v>
       </c>
       <c r="C3034" t="str">
-        <v>/handbook/handbook_appendix_f</v>
+        <v>/handbook/s</v>
       </c>
       <c r="D3034" t="str">
         <v>Basic Page</v>
@@ -42892,7 +42892,7 @@
         <v>Student Handbook</v>
       </c>
       <c r="C3035" t="str">
-        <v>/handbook/b</v>
+        <v>/handbook/handbook_appendix_a</v>
       </c>
       <c r="D3035" t="str">
         <v>Basic Page</v>
@@ -43508,7 +43508,7 @@
         <v>Internal Control</v>
       </c>
       <c r="C3079" t="str">
-        <v>/internal_controls/systems</v>
+        <v>/internal_controls/authorities</v>
       </c>
       <c r="D3079" t="str">
         <v>Basic Page</v>
@@ -43522,7 +43522,7 @@
         <v>Internal Control</v>
       </c>
       <c r="C3080" t="str">
-        <v>/internal_controls/authorities</v>
+        <v>/internal_controls/vulnerability</v>
       </c>
       <c r="D3080" t="str">
         <v>Basic Page</v>
@@ -43536,7 +43536,7 @@
         <v>Internal Control</v>
       </c>
       <c r="C3081" t="str">
-        <v>/internal_controls/vulnerability</v>
+        <v>/internal_controls/systems</v>
       </c>
       <c r="D3081" t="str">
         <v>Basic Page</v>
@@ -43676,7 +43676,7 @@
         <v>Alpha Kappa Psi</v>
       </c>
       <c r="C3091" t="str">
-        <v>/akpsi/families</v>
+        <v>/akpsi/alumni.</v>
       </c>
       <c r="D3091" t="str">
         <v>Basic Page</v>
@@ -43690,7 +43690,7 @@
         <v>Alpha Kappa Psi</v>
       </c>
       <c r="C3092" t="str">
-        <v>/akpsi/community-service</v>
+        <v>/akpsi/psi-omicron</v>
       </c>
       <c r="D3092" t="str">
         <v>Basic Page</v>
@@ -43704,7 +43704,7 @@
         <v>Alpha Kappa Psi</v>
       </c>
       <c r="C3093" t="str">
-        <v>/akpsi/professional-development</v>
+        <v>/akpsi/family-lines</v>
       </c>
       <c r="D3093" t="str">
         <v>Basic Page</v>
@@ -43718,7 +43718,7 @@
         <v>Alpha Kappa Psi</v>
       </c>
       <c r="C3094" t="str">
-        <v>/akpsi/contact</v>
+        <v>/akpsi/current-brothers</v>
       </c>
       <c r="D3094" t="str">
         <v>Basic Page</v>
@@ -43732,7 +43732,7 @@
         <v>Alpha Kappa Psi</v>
       </c>
       <c r="C3095" t="str">
-        <v>/akpsi/history</v>
+        <v>/https%3A//docs.google.com/a/geneseo.edu/spreadsheet/embeddedform%3Fformkey%3DdGhqem5qV2h3RFBCYVQ1c1VwS0pXYVE6MQ%22</v>
       </c>
       <c r="D3095" t="str">
         <v>Basic Page</v>
@@ -43746,7 +43746,7 @@
         <v>Alpha Kappa Psi</v>
       </c>
       <c r="C3096" t="str">
-        <v>/akpsi/forms-documents</v>
+        <v>/akpsi/alumni-reconnect-form</v>
       </c>
       <c r="D3096" t="str">
         <v>Basic Page</v>
@@ -43760,7 +43760,7 @@
         <v>Alpha Kappa Psi</v>
       </c>
       <c r="C3097" t="str">
-        <v>/akpsi/alumni</v>
+        <v>/akpsi/families</v>
       </c>
       <c r="D3097" t="str">
         <v>Basic Page</v>
@@ -43774,7 +43774,7 @@
         <v>Alpha Kappa Psi</v>
       </c>
       <c r="C3098" t="str">
-        <v>/akpsi/calendar</v>
+        <v>/akpsi/community-service</v>
       </c>
       <c r="D3098" t="str">
         <v>Basic Page</v>
@@ -43788,7 +43788,7 @@
         <v>Alpha Kappa Psi</v>
       </c>
       <c r="C3099" t="str">
-        <v>/akpsi/alumni.</v>
+        <v>/akpsi/professional-development</v>
       </c>
       <c r="D3099" t="str">
         <v>Basic Page</v>
@@ -43802,7 +43802,7 @@
         <v>Alpha Kappa Psi</v>
       </c>
       <c r="C3100" t="str">
-        <v>/akpsi/psi-omicron</v>
+        <v>/akpsi/contact</v>
       </c>
       <c r="D3100" t="str">
         <v>Basic Page</v>
@@ -43816,7 +43816,7 @@
         <v>Alpha Kappa Psi</v>
       </c>
       <c r="C3101" t="str">
-        <v>/akpsi/family-lines</v>
+        <v>/akpsi/history</v>
       </c>
       <c r="D3101" t="str">
         <v>Basic Page</v>
@@ -43830,7 +43830,7 @@
         <v>Alpha Kappa Psi</v>
       </c>
       <c r="C3102" t="str">
-        <v>/akpsi/current-brothers</v>
+        <v>/akpsi/forms-documents</v>
       </c>
       <c r="D3102" t="str">
         <v>Basic Page</v>
@@ -43844,7 +43844,7 @@
         <v>Alpha Kappa Psi</v>
       </c>
       <c r="C3103" t="str">
-        <v>/https%3A//docs.google.com/a/geneseo.edu/spreadsheet/embeddedform%3Fformkey%3DdGhqem5qV2h3RFBCYVQ1c1VwS0pXYVE6MQ%22</v>
+        <v>/akpsi/alumni</v>
       </c>
       <c r="D3103" t="str">
         <v>Basic Page</v>
@@ -43858,7 +43858,7 @@
         <v>Alpha Kappa Psi</v>
       </c>
       <c r="C3104" t="str">
-        <v>/akpsi/alumni-reconnect-form</v>
+        <v>/akpsi/calendar</v>
       </c>
       <c r="D3104" t="str">
         <v>Basic Page</v>
@@ -44180,7 +44180,7 @@
         <v>EIT Accessibility</v>
       </c>
       <c r="C3127" t="str">
-        <v>/eit-accessibility/creating-accessible-content</v>
+        <v>/eit-accessibility</v>
       </c>
       <c r="D3127" t="str">
         <v>Basic Page</v>
@@ -44194,7 +44194,7 @@
         <v>EIT Accessibility</v>
       </c>
       <c r="C3128" t="str">
-        <v>/eit-accessibility/ensuring-accessibility</v>
+        <v>/eit-accessibility/creating-accessible-content</v>
       </c>
       <c r="D3128" t="str">
         <v>Basic Page</v>
@@ -44208,7 +44208,7 @@
         <v>EIT Accessibility</v>
       </c>
       <c r="C3129" t="str">
-        <v>/eit-accessibility/physical-accessibility</v>
+        <v>/eit-accessibility/ensuring-accessibility</v>
       </c>
       <c r="D3129" t="str">
         <v>Basic Page</v>
@@ -44222,7 +44222,7 @@
         <v>EIT Accessibility</v>
       </c>
       <c r="C3130" t="str">
-        <v>/eit-accessibility/definitions</v>
+        <v>/eit-accessibility/physical-accessibility</v>
       </c>
       <c r="D3130" t="str">
         <v>Basic Page</v>
@@ -44236,7 +44236,7 @@
         <v>EIT Accessibility</v>
       </c>
       <c r="C3131" t="str">
-        <v>/eit-accessibility/guiding-principles</v>
+        <v>/eit-accessibility/definitions</v>
       </c>
       <c r="D3131" t="str">
         <v>Basic Page</v>
@@ -44250,7 +44250,7 @@
         <v>EIT Accessibility</v>
       </c>
       <c r="C3132" t="str">
-        <v>/eit-accessibility</v>
+        <v>/eit-accessibility/guiding-principles</v>
       </c>
       <c r="D3132" t="str">
         <v>Basic Page</v>
@@ -45230,7 +45230,7 @@
         <v>McNair</v>
       </c>
       <c r="C3202" t="str">
-        <v>/mcnair/community-college-application</v>
+        <v>/mcnair/eligibility/mcc</v>
       </c>
       <c r="D3202" t="str">
         <v>Basic Page</v>
@@ -45244,7 +45244,7 @@
         <v>McNair</v>
       </c>
       <c r="C3203" t="str">
-        <v>/mcnair/geneseo-application</v>
+        <v>/mcnair/preparing-graduate-school-common-questions</v>
       </c>
       <c r="D3203" t="str">
         <v>Basic Page</v>
@@ -45258,7 +45258,7 @@
         <v>McNair</v>
       </c>
       <c r="C3204" t="str">
-        <v>/mcnair/giro/apply</v>
+        <v>/mcnair/community-college-application</v>
       </c>
       <c r="D3204" t="str">
         <v>Basic Page</v>
@@ -45272,7 +45272,7 @@
         <v>McNair</v>
       </c>
       <c r="C3205" t="str">
-        <v>/mcnair/benefits</v>
+        <v>/mcnair/geneseo-application</v>
       </c>
       <c r="D3205" t="str">
         <v>Basic Page</v>
@@ -45286,7 +45286,7 @@
         <v>McNair</v>
       </c>
       <c r="C3206" t="str">
-        <v>/mcnair/opportunities</v>
+        <v>/mcnair/giro/apply</v>
       </c>
       <c r="D3206" t="str">
         <v>Basic Page</v>
@@ -45300,7 +45300,7 @@
         <v>McNair</v>
       </c>
       <c r="C3207" t="str">
-        <v>/mcnair/become-tutor</v>
+        <v>/mcnair/benefits</v>
       </c>
       <c r="D3207" t="str">
         <v>Basic Page</v>
@@ -45314,7 +45314,7 @@
         <v>McNair</v>
       </c>
       <c r="C3208" t="str">
-        <v>/mcnair/application-preview-giro-topic-submission</v>
+        <v>/mcnair/opportunities</v>
       </c>
       <c r="D3208" t="str">
         <v>Basic Page</v>
@@ -45328,7 +45328,7 @@
         <v>McNair</v>
       </c>
       <c r="C3209" t="str">
-        <v>/mcnair/eligibility/geneseo</v>
+        <v>/mcnair/become-tutor</v>
       </c>
       <c r="D3209" t="str">
         <v>Basic Page</v>
@@ -45342,7 +45342,7 @@
         <v>McNair</v>
       </c>
       <c r="C3210" t="str">
-        <v>/mcnair/eligibility/mcc</v>
+        <v>/mcnair/application-preview-giro-topic-submission</v>
       </c>
       <c r="D3210" t="str">
         <v>Basic Page</v>
@@ -45356,7 +45356,7 @@
         <v>McNair</v>
       </c>
       <c r="C3211" t="str">
-        <v>/mcnair/preparing-graduate-school-common-questions</v>
+        <v>/mcnair/eligibility/geneseo</v>
       </c>
       <c r="D3211" t="str">
         <v>Basic Page</v>
@@ -45580,7 +45580,7 @@
         <v>Yoga Club</v>
       </c>
       <c r="C3227" t="str">
-        <v>/yoga/prana-and-chi-kung</v>
+        <v>/yoga/interfaith-dialogue</v>
       </c>
       <c r="D3227" t="str">
         <v>Basic Page</v>
@@ -45594,7 +45594,7 @@
         <v>Yoga Club</v>
       </c>
       <c r="C3228" t="str">
-        <v>/yoga/parables-and-teachings</v>
+        <v>/yoga/prana-and-chi-kung</v>
       </c>
       <c r="D3228" t="str">
         <v>Basic Page</v>
@@ -45608,7 +45608,7 @@
         <v>Yoga Club</v>
       </c>
       <c r="C3229" t="str">
-        <v>/yoga/mating-instinct</v>
+        <v>/yoga/parables-and-teachings</v>
       </c>
       <c r="D3229" t="str">
         <v>Basic Page</v>
@@ -45622,7 +45622,7 @@
         <v>Yoga Club</v>
       </c>
       <c r="C3230" t="str">
-        <v>/yoga/hall-fame-past-officers</v>
+        <v>/yoga/mating-instinct</v>
       </c>
       <c r="D3230" t="str">
         <v>Basic Page</v>
@@ -45636,7 +45636,7 @@
         <v>Yoga Club</v>
       </c>
       <c r="C3231" t="str">
-        <v>/yoga/interfaith-dialogue</v>
+        <v>/yoga/hall-fame-past-officers</v>
       </c>
       <c r="D3231" t="str">
         <v>Basic Page</v>
@@ -48548,7 +48548,7 @@
         <v>Black Studies/Africana Studies</v>
       </c>
       <c r="C3439" t="str">
-        <v>/2011MLK</v>
+        <v>/mlk-18</v>
       </c>
       <c r="D3439" t="str">
         <v>Basic Page</v>
@@ -48562,7 +48562,7 @@
         <v>Black Studies/Africana Studies</v>
       </c>
       <c r="C3440" t="str">
-        <v>/2010MLK</v>
+        <v>/2013MLK</v>
       </c>
       <c r="D3440" t="str">
         <v>Basic Page</v>
@@ -48576,7 +48576,7 @@
         <v>Black Studies/Africana Studies</v>
       </c>
       <c r="C3441" t="str">
-        <v>/mlk-18</v>
+        <v>/2012MLK</v>
       </c>
       <c r="D3441" t="str">
         <v>Basic Page</v>
@@ -48590,7 +48590,7 @@
         <v>Black Studies/Africana Studies</v>
       </c>
       <c r="C3442" t="str">
-        <v>/2013MLK</v>
+        <v>/2011MLK</v>
       </c>
       <c r="D3442" t="str">
         <v>Basic Page</v>
@@ -48604,7 +48604,7 @@
         <v>Black Studies/Africana Studies</v>
       </c>
       <c r="C3443" t="str">
-        <v>/2012MLK</v>
+        <v>/2010MLK</v>
       </c>
       <c r="D3443" t="str">
         <v>Basic Page</v>
@@ -49108,7 +49108,7 @@
         <v>Duplicating Center</v>
       </c>
       <c r="C3479" t="str">
-        <v>/duplicating_center/duplicating-center-policy-unacceptable-materials</v>
+        <v>/duplicating_center/paper</v>
       </c>
       <c r="D3479" t="str">
         <v>Basic Page</v>
@@ -49122,7 +49122,7 @@
         <v>Duplicating Center</v>
       </c>
       <c r="C3480" t="str">
-        <v>/duplicating_center/duplicating-center-policy-customer-approval-complex-jobs</v>
+        <v>/duplicating_center/forms</v>
       </c>
       <c r="D3480" t="str">
         <v>Basic Page</v>
@@ -49136,7 +49136,7 @@
         <v>Duplicating Center</v>
       </c>
       <c r="C3481" t="str">
-        <v>/duplicating_center/services_and_equipment</v>
+        <v>/duplicating_center/policies-procedures</v>
       </c>
       <c r="D3481" t="str">
         <v>Basic Page</v>
@@ -49150,7 +49150,7 @@
         <v>Duplicating Center</v>
       </c>
       <c r="C3482" t="str">
-        <v>/duplicating_center/finishing_services</v>
+        <v>/duplicating_center/duplicating-center-policy-jobs-requiring-layout-or-design-services</v>
       </c>
       <c r="D3482" t="str">
         <v>Basic Page</v>
@@ -49164,7 +49164,7 @@
         <v>Duplicating Center</v>
       </c>
       <c r="C3483" t="str">
-        <v>/duplicating_center/tips_suggestions</v>
+        <v>/duplicating_center/duplicating-center-policy-unacceptable-materials</v>
       </c>
       <c r="D3483" t="str">
         <v>Basic Page</v>
@@ -49178,7 +49178,7 @@
         <v>Duplicating Center</v>
       </c>
       <c r="C3484" t="str">
-        <v>/duplicating_center/xerox_workcentre</v>
+        <v>/duplicating_center/duplicating-center-policy-customer-approval-complex-jobs</v>
       </c>
       <c r="D3484" t="str">
         <v>Basic Page</v>
@@ -49192,7 +49192,7 @@
         <v>Duplicating Center</v>
       </c>
       <c r="C3485" t="str">
-        <v>/duplicating_center/philosophy</v>
+        <v>/duplicating_center/services_and_equipment</v>
       </c>
       <c r="D3485" t="str">
         <v>Basic Page</v>
@@ -49206,7 +49206,7 @@
         <v>Duplicating Center</v>
       </c>
       <c r="C3486" t="str">
-        <v>/duplicating_center/faqs</v>
+        <v>/duplicating_center/finishing_services</v>
       </c>
       <c r="D3486" t="str">
         <v>Basic Page</v>
@@ -49220,7 +49220,7 @@
         <v>Duplicating Center</v>
       </c>
       <c r="C3487" t="str">
-        <v>/duplicating_center/paper</v>
+        <v>/duplicating_center/tips_suggestions</v>
       </c>
       <c r="D3487" t="str">
         <v>Basic Page</v>
@@ -49234,7 +49234,7 @@
         <v>Duplicating Center</v>
       </c>
       <c r="C3488" t="str">
-        <v>/duplicating_center/forms</v>
+        <v>/duplicating_center/xerox_workcentre</v>
       </c>
       <c r="D3488" t="str">
         <v>Basic Page</v>
@@ -49248,7 +49248,7 @@
         <v>Duplicating Center</v>
       </c>
       <c r="C3489" t="str">
-        <v>/duplicating_center/policies-procedures</v>
+        <v>/duplicating_center/philosophy</v>
       </c>
       <c r="D3489" t="str">
         <v>Basic Page</v>
@@ -49262,7 +49262,7 @@
         <v>Duplicating Center</v>
       </c>
       <c r="C3490" t="str">
-        <v>/duplicating_center/duplicating-center-policy-jobs-requiring-layout-or-design-services</v>
+        <v>/duplicating_center/faqs</v>
       </c>
       <c r="D3490" t="str">
         <v>Basic Page</v>
@@ -49878,7 +49878,7 @@
         <v>Geneseo First Response</v>
       </c>
       <c r="C3534" t="str">
-        <v>/gfr/apply-online</v>
+        <v>/gfr/contact_info</v>
       </c>
       <c r="D3534" t="str">
         <v>Basic Page</v>
@@ -49892,7 +49892,7 @@
         <v>Geneseo First Response</v>
       </c>
       <c r="C3535" t="str">
-        <v>/gfr/webform/crew-chief-evaluation-forms</v>
+        <v>/gfr/apply-online</v>
       </c>
       <c r="D3535" t="str">
         <v>Basic Page</v>
@@ -49906,7 +49906,7 @@
         <v>Geneseo First Response</v>
       </c>
       <c r="C3536" t="str">
-        <v>/gfr/webform/crew-chief-self-evaluation</v>
+        <v>/gfr/webform/crew-chief-evaluation-forms</v>
       </c>
       <c r="D3536" t="str">
         <v>Basic Page</v>
@@ -49920,7 +49920,7 @@
         <v>Geneseo First Response</v>
       </c>
       <c r="C3537" t="str">
-        <v>/gfr/contact_info</v>
+        <v>/gfr/webform/crew-chief-self-evaluation</v>
       </c>
       <c r="D3537" t="str">
         <v>Basic Page</v>
@@ -50396,7 +50396,7 @@
         <v>SHRM</v>
       </c>
       <c r="C3571" t="str">
-        <v>/shrm/graduate-programs-hr</v>
+        <v>/shrm/student-membership</v>
       </c>
       <c r="D3571" t="str">
         <v>Basic Page</v>
@@ -50410,7 +50410,7 @@
         <v>SHRM</v>
       </c>
       <c r="C3572" t="str">
-        <v>/shrm/student-membership</v>
+        <v>/shrm/organization</v>
       </c>
       <c r="D3572" t="str">
         <v>Basic Page</v>
@@ -50424,7 +50424,7 @@
         <v>SHRM</v>
       </c>
       <c r="C3573" t="str">
-        <v>/shrm/organization</v>
+        <v>/shrm/mission-statement</v>
       </c>
       <c r="D3573" t="str">
         <v>Basic Page</v>
@@ -50438,7 +50438,7 @@
         <v>SHRM</v>
       </c>
       <c r="C3574" t="str">
-        <v>/shrm/mission-statement</v>
+        <v>/shrm/code-ethics</v>
       </c>
       <c r="D3574" t="str">
         <v>Basic Page</v>
@@ -50452,7 +50452,7 @@
         <v>SHRM</v>
       </c>
       <c r="C3575" t="str">
-        <v>/shrm/code-ethics</v>
+        <v>/shrm/internships</v>
       </c>
       <c r="D3575" t="str">
         <v>Basic Page</v>
@@ -50466,7 +50466,7 @@
         <v>SHRM</v>
       </c>
       <c r="C3576" t="str">
-        <v>/shrm/internships</v>
+        <v>/shrm/graduate-programs-hr</v>
       </c>
       <c r="D3576" t="str">
         <v>Basic Page</v>
